--- a/Code/Failure_rate/2022/YTD_2022.xlsx
+++ b/Code/Failure_rate/2022/YTD_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\project_files\USAI\Code\Failure_rate\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F692EDC9-A33B-43E1-BE97-FBC4EF2924A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF89544-0EAE-473F-B909-7726A10A191C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="20550" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="16635" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="1231">
   <si>
     <t>RMA ID</t>
   </si>
@@ -2901,6 +2901,819 @@
   </si>
   <si>
     <t>CONNECT 4" SQUARE BEVEL CT HSG 15W CLASSIC 120-277V D6E ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>RMA16912</t>
+  </si>
+  <si>
+    <t>RPB-01-15CS3-UNV-D6A-MOD1</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER MINI/NANO-1 FIXTURE MAX 15W CS3 280mA 120-277V D6A-MOD=CSD 2CH BLACK ROCK</t>
+  </si>
+  <si>
+    <t>RMA16908</t>
+  </si>
+  <si>
+    <t>SP-285-02-RD-F</t>
+  </si>
+  <si>
+    <t>3" MINI BASIC EC ADPT REPLACEMENT KIT-ROUND FLANGED</t>
+  </si>
+  <si>
+    <t>RMA16907</t>
+  </si>
+  <si>
+    <t>LEM-213-00-40KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT BASIC BEVELED STD CRI 4000K</t>
+  </si>
+  <si>
+    <t>RMA16906</t>
+  </si>
+  <si>
+    <t>M1RDF-07X4C-30KH-50-M0-WH-WH-RT-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO RD DL TRMD 7W 3000K 90 CRI 50° BEAM MICRO DIF LENS WHITE WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RPD-04-07X4C-UNV-D6E</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER LITTLEONES-4 FIXTURE MAX-7W X4C 700mA 120-277V D6E</t>
+  </si>
+  <si>
+    <t>RMA16905</t>
+  </si>
+  <si>
+    <t>SP-359-1</t>
+  </si>
+  <si>
+    <t>REPLACEMENT CONTROLLER PLATE ASSY-MINI FTA CS AC166 NON ELDO</t>
+  </si>
+  <si>
+    <t>RMA16904</t>
+  </si>
+  <si>
+    <t>SP-317-0350-28</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.2 NC HSG 9W 350mA 120V-277V  ELDO DMX 0.1%</t>
+  </si>
+  <si>
+    <t>RMA16903</t>
+  </si>
+  <si>
+    <t>LEM-293-00-35KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.1/2.2 36W 80CRI 3500K</t>
+  </si>
+  <si>
+    <t>RMA16902</t>
+  </si>
+  <si>
+    <t>SP-324-0350-3</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT DRIVER - REPLACEMENT MINI X FTA-0350mA 120V-277V DIML3-TR</t>
+  </si>
+  <si>
+    <t>RMA16901</t>
+  </si>
+  <si>
+    <t>B3RAL-25-S-BL-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI ROUND DL/ADJ TRML SOLITE LENS BLACK</t>
+  </si>
+  <si>
+    <t>C - REP ERROR</t>
+  </si>
+  <si>
+    <t>B3RAL-18CS1-6022KS-40-NC1-UNV-D28-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD ADJ TRML 18W COLOR SELECT 60-22K 80CRI 40° BEAM NC1 HSG 120-277V D28</t>
+  </si>
+  <si>
+    <t>RMA16900</t>
+  </si>
+  <si>
+    <t>USAI-4DLD1NM-TW1IV32A-RFK-00</t>
+  </si>
+  <si>
+    <t>RECESS 4.5 RD DL TRMD 32W COLOR SELECT 60-22K 80CRI 60°BEAM NCSM HSG 120-277V 0-10V 1% DIM</t>
+  </si>
+  <si>
+    <t>RMA16899</t>
+  </si>
+  <si>
+    <t>RMA16898</t>
+  </si>
+  <si>
+    <t>SP-172-0700-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED PENDANT CSD 32W 0700mA 120V-277V DIML6e EL-0-10</t>
+  </si>
+  <si>
+    <t>SP-250-1</t>
+  </si>
+  <si>
+    <t>REPLACEMENT CONTROLLER-COLOR SELECT 2.0/MINI/5.0 NC/NCSM/FT</t>
+  </si>
+  <si>
+    <t>RMA16897</t>
+  </si>
+  <si>
+    <t>RPC-01-16C3-120V-D3</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER BEVELED-1 FIXTURE MAX-16W C3 700mA 120V D3</t>
+  </si>
+  <si>
+    <t>RMA16896</t>
+  </si>
+  <si>
+    <t>RMA16895</t>
+  </si>
+  <si>
+    <t>B4RDF-32CS1-6022KS-60-NCSM-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 RD DL TRMD 32W COLOR SELECT 60-22K 80CRI 60° BEAM NCSM HSG 120-277V ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>RMA16894</t>
+  </si>
+  <si>
+    <t>LEM-275-16-3022KH</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.2 WG2 16W 90CRI 3000-2200K</t>
+  </si>
+  <si>
+    <t>RMA16893</t>
+  </si>
+  <si>
+    <t>MDG06-21H1-35KH-50-BG-BL-GL94-TRM</t>
+  </si>
+  <si>
+    <t>MICRO DL FOR WOODWORKS 6 CELL 21W 3500K 90 CRI 50° BLACK SPECULAR-BLACK GL94 TRIM</t>
+  </si>
+  <si>
+    <t>RMA16892</t>
+  </si>
+  <si>
+    <t>A1-661-NC-01B</t>
+  </si>
+  <si>
+    <t>EM BATT ASM-IOTA STD AC164 4"NC</t>
+  </si>
+  <si>
+    <t>SP-317-1050-6E-EM</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.2 NC HSG 24W 1050mA 120V-277V-ELDO 1% LIN DIM EM</t>
+  </si>
+  <si>
+    <t>RMA16891</t>
+  </si>
+  <si>
+    <t>RMA16890</t>
+  </si>
+  <si>
+    <t>SP-373-0900-28</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.2 NCSM HSG E1 36W 900mA 120V-277V ELDO DMX 0.1%</t>
+  </si>
+  <si>
+    <t>RMA16889</t>
+  </si>
+  <si>
+    <t>RMA16888</t>
+  </si>
+  <si>
+    <t>A3-232-NC1-05</t>
+  </si>
+  <si>
+    <t>HSG MINI NC1-MINI-X</t>
+  </si>
+  <si>
+    <t>RMA16887</t>
+  </si>
+  <si>
+    <t>M1SDL-09X1M-30KH-35-M0-WH-NC-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO SQ DL TRML 9W 3000K 90 CRI 35° BEAM MICRO DIF LENS WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA16886</t>
+  </si>
+  <si>
+    <t>RMA16885</t>
+  </si>
+  <si>
+    <t>LEM-402-A1-30H</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT - ZEPTO 90+CRI 3000K</t>
+  </si>
+  <si>
+    <t>RMA16884</t>
+  </si>
+  <si>
+    <t>B3RDF-15L2-35KS-50-NC1-UNV-D22-EM-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD DL TRMD 15W BASIC 35K 80CRI 50° BEAM NC1 HSG 120-277V D22 EM</t>
+  </si>
+  <si>
+    <t>B3RDF-15L2-35KS-50-NC1-UNV-D22-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD DL TRMD 15W BASIC 35K 80CRI 50° BEAM NC1 HSG 120-277V D22</t>
+  </si>
+  <si>
+    <t>RMA16883</t>
+  </si>
+  <si>
+    <t>AL20M</t>
+  </si>
+  <si>
+    <t>SIZE M-ACCESSORY LENS MICRODIFFUSION 20 X 20° BEAM</t>
+  </si>
+  <si>
+    <t>SV-X115-NC-UNV-D6E</t>
+  </si>
+  <si>
+    <t>SLIVERLED SQ/RND TRIMMED 15W NEW CONSTRUCTION HSG 120-277V-DIML6E</t>
+  </si>
+  <si>
+    <t>SS21-BL-X115-30KS-25-S-WH-TRM</t>
+  </si>
+  <si>
+    <t>SLIVERLED SQ ADJ REGRESS BLCK BFFL X115 3000KS-25°DISTRIBUTION-SOLITE CLEAR LENS-WHITE TRM</t>
+  </si>
+  <si>
+    <t>RMA16882</t>
+  </si>
+  <si>
+    <t>RMA16881</t>
+  </si>
+  <si>
+    <t>RMA16880</t>
+  </si>
+  <si>
+    <t>SP-192-RJ</t>
+  </si>
+  <si>
+    <t>INTERFACE- DMX SIGNAL WRGB- RJ45</t>
+  </si>
+  <si>
+    <t>SP-175-0700-1M</t>
+  </si>
+  <si>
+    <t>DRIVER ASM BEVELED WRGB- 32W 350/350/350/700mA 120V-277V NC/IC/CP 8 BIT MANUAL ADDRESSING DMX DIM-EL</t>
+  </si>
+  <si>
+    <t>RMA16879</t>
+  </si>
+  <si>
+    <t>RMA16878</t>
+  </si>
+  <si>
+    <t>RMA16877</t>
+  </si>
+  <si>
+    <t>B4RDF-16WG2-3022KS-50-NC-UNV-D6E-EM-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 RD DL TRMD 16W WARM GLOW 30-22K 80CRI 50° BEAM NC HSG 120-277V ELDO 1% LIN DIM EM</t>
+  </si>
+  <si>
+    <t>RMA16876</t>
+  </si>
+  <si>
+    <t>P3RDF-15L2-30KS-M-WH-EC-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI PRIMARY ROUND DL TRMD 15W L2 30K 80CRI MEDIUM WHITE EC TRIM</t>
+  </si>
+  <si>
+    <t>RMA16875</t>
+  </si>
+  <si>
+    <t>BLRD5-16C3-35KH-50-S-WH-CC-UNV-D2</t>
+  </si>
+  <si>
+    <t>BEVELED BLOCK RD 16W 3500KH-50° DL-SOLITE LENS-WHITE-CONDUIT CUTOUTS 120-277V DIML2</t>
+  </si>
+  <si>
+    <t>RMA16874</t>
+  </si>
+  <si>
+    <t>RPC-01-12C3-UNV-D6E-EM5</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER BEVELED-1 FIXTURE MAX-12W C3 500mA 120-277V D6E-EM 5W</t>
+  </si>
+  <si>
+    <t>BLSD5-12C3-35KS-50-S-SC-PJ3-UNV-D6E</t>
+  </si>
+  <si>
+    <t>BEVELED BLOCK SQ 12W 3500KS-50° DL-SOLITE LENS-CONDUIT SILVER-PJ MOUNT 49"-95" 120-277V DIML6E</t>
+  </si>
+  <si>
+    <t>RMA16873</t>
+  </si>
+  <si>
+    <t>LED-203-40B</t>
+  </si>
+  <si>
+    <t>NANO LED CREE MTG2 4000K STD CRI</t>
+  </si>
+  <si>
+    <t>RMA16872</t>
+  </si>
+  <si>
+    <t>RMA16870</t>
+  </si>
+  <si>
+    <t>RMA16869</t>
+  </si>
+  <si>
+    <t>LEM-329-00-6022KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT LIGH ENGINE- (24) XD16 COLOR SELECT MINI CS2 STD CRI 6000-2200K</t>
+  </si>
+  <si>
+    <t>RMA16868</t>
+  </si>
+  <si>
+    <t>SP-312-0500-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.2 FT HSG 12W 500mA 120V-277V ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>RMA16867</t>
+  </si>
+  <si>
+    <t>RMA16866</t>
+  </si>
+  <si>
+    <t>RMA16865</t>
+  </si>
+  <si>
+    <t>SP-087-0350-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-BEVELED 6" PENDANT-9W-350mA-120V-277V-DIML6E-EL</t>
+  </si>
+  <si>
+    <t>SP-087-0700-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-BEVELED 6" PENDANT-16W-700mA-120V-277V DIML6E-EL</t>
+  </si>
+  <si>
+    <t>RMA16864</t>
+  </si>
+  <si>
+    <t>RPD-01-15X1M-120V-D3</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER LITTLEONES-1 FIXTURE/DRIVER-15W X1M 350mA 120V D3</t>
+  </si>
+  <si>
+    <t>RPD-03-15X4C-120V-D3</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER LITTLEONES-3 FIXTURES/DRIVER-15W X4C 1300mA 120V D3</t>
+  </si>
+  <si>
+    <t>RMA16863</t>
+  </si>
+  <si>
+    <t>RMA16862</t>
+  </si>
+  <si>
+    <t>RMA16861</t>
+  </si>
+  <si>
+    <t>B3RDF-20X3-27KS-40-NC1-120V-D19-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD DL TRMD 20W CLASSIC 27K 80CRI 40° BEAM NC1 HSG 120V D19 PHASE 1% DIM</t>
+  </si>
+  <si>
+    <t>RMA16860</t>
+  </si>
+  <si>
+    <t>RMA16859</t>
+  </si>
+  <si>
+    <t>RMA16858</t>
+  </si>
+  <si>
+    <t>USAI-2CRNC-CXXIP15A-00</t>
+  </si>
+  <si>
+    <t>SAVANT/USAI CORE 2 CLASIC WHITE INTEGRAL 120V PHASE 15W NC HSG</t>
+  </si>
+  <si>
+    <t>RMA16857</t>
+  </si>
+  <si>
+    <t>RMA16856</t>
+  </si>
+  <si>
+    <t>USAI-4DL-LED-TW1XX-00</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-RECESS 4.5 TW1 16-32W 80CRI 6000-2200K</t>
+  </si>
+  <si>
+    <t>RMA16855</t>
+  </si>
+  <si>
+    <t>SP-519-0700-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT - BEVELED 2.2 CYLINDER CS1 32W 700mA 120-277V D6E</t>
+  </si>
+  <si>
+    <t>RMA16854</t>
+  </si>
+  <si>
+    <t>RMA16853</t>
+  </si>
+  <si>
+    <t>RMA16851</t>
+  </si>
+  <si>
+    <t>SP-189-0350-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT SLIVERLED 350mA-DIML6E-EL</t>
+  </si>
+  <si>
+    <t>RMA16850</t>
+  </si>
+  <si>
+    <t>RMA16848</t>
+  </si>
+  <si>
+    <t>RMA16847</t>
+  </si>
+  <si>
+    <t>SP-339-S-BL</t>
+  </si>
+  <si>
+    <t>TRIM REPLACEMENT BEVELED BLOCK SQ DL-SOLITE-BLACK</t>
+  </si>
+  <si>
+    <t>RMA16846</t>
+  </si>
+  <si>
+    <t>RMA16845</t>
+  </si>
+  <si>
+    <t>RMA16844</t>
+  </si>
+  <si>
+    <t>B3RAF-S-GR-GR-TRM-MLC</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD DL/ADJ TRMD 0°-40° TILT SOLITE LENS -GREY BEVEL-GREY FLAN-MILLWORK CONVERSION TRIM</t>
+  </si>
+  <si>
+    <t>RMA16843</t>
+  </si>
+  <si>
+    <t>M1SDF-09X1M-27KH-50-M0-WH-WH-RT-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO SQ DL TRMD 9W 2700K 90 CRI 50° BEAM MICRO DIF LENS WHITE WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA16841</t>
+  </si>
+  <si>
+    <t>RMA16839</t>
+  </si>
+  <si>
+    <t>RMA16838</t>
+  </si>
+  <si>
+    <t>B4RCL-32WG2-3022KH-65-NCIC-120V-D3-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 RD COMFORT TRML 32W WARM GLOW 30-22K 90CRI 65° BEAM NCIC HSG 120V LUTRON 2-WIRE DIM</t>
+  </si>
+  <si>
+    <t>RMA16837</t>
+  </si>
+  <si>
+    <t>RMA16836</t>
+  </si>
+  <si>
+    <t>SAMPLE BAG BEVELED 2.2</t>
+  </si>
+  <si>
+    <t>RMA16835</t>
+  </si>
+  <si>
+    <t>SP-464-0350-22-EML</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-MINI BASIC-9W 350mA NC1/NCIC/NCCP HSG DIML22 EML</t>
+  </si>
+  <si>
+    <t>RMA16834</t>
+  </si>
+  <si>
+    <t>6331-B1-F-10</t>
+  </si>
+  <si>
+    <t>BEVELED 5.0 ROUND TRIMLESS ADJ 6" WHITE-FROSTED LENS</t>
+  </si>
+  <si>
+    <t>RMA16833</t>
+  </si>
+  <si>
+    <t>RMA16832</t>
+  </si>
+  <si>
+    <t>SP-318-1050-6E-MOD-PD-2111-1</t>
+  </si>
+  <si>
+    <t>RMA16831</t>
+  </si>
+  <si>
+    <t>B3RDL-18CS1-6022KS-65-FT-RM-HSG-MOD2</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD DL TRML 18W CLR SLCT 60-22K 80CRI 65°FT HSG REMOTE DRVR-MOD=CLR SLCT LESS LIGHT ENGI</t>
+  </si>
+  <si>
+    <t>RMA16830</t>
+  </si>
+  <si>
+    <t>RMA16829</t>
+  </si>
+  <si>
+    <t>RMA16828</t>
+  </si>
+  <si>
+    <t>RMA16827</t>
+  </si>
+  <si>
+    <t>RMA16826</t>
+  </si>
+  <si>
+    <t>RMA16825</t>
+  </si>
+  <si>
+    <t>RMA16824</t>
+  </si>
+  <si>
+    <t>B3SDL-20X3-30KS-55-FT-120V-D19-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL TRML 20W CLASSIC 30K 80CRI 55° BEAM FT HSG 120V D19 PHASE 1% DIM</t>
+  </si>
+  <si>
+    <t>B3SDL-S-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELEDMINI SQ DL/ADJ TRML SOLITE LENS WHITE</t>
+  </si>
+  <si>
+    <t>RMA16823</t>
+  </si>
+  <si>
+    <t>MWF12-41H1-35KS-WH-WH-TRM</t>
+  </si>
+  <si>
+    <t>MICRO WALL WASH FLANGE 12 CELL 41W 3500KS WHITE-WHITE-TRIM</t>
+  </si>
+  <si>
+    <t>RMA16822</t>
+  </si>
+  <si>
+    <t>MDG04-13H1-NCVS-UNV-D6E-GL95-HSG</t>
+  </si>
+  <si>
+    <t>MICRO DL FOR WOODWORKS 4 CELL 13W NCVS UNV ELDOLED 0-10V 1% LIN GL95 HSG</t>
+  </si>
+  <si>
+    <t>RMA16821</t>
+  </si>
+  <si>
+    <t>RMA16820</t>
+  </si>
+  <si>
+    <t>SP-318-0350-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.2 NCSM HSG C3 9W 350mA 120V-277V ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>RMA16819</t>
+  </si>
+  <si>
+    <t>RPD-01-09X1M-120V-D3</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER LITTLEONES-1 FIXTURE/DRIVER-9W X1M 225mA 120V D3</t>
+  </si>
+  <si>
+    <t>RMA16818</t>
+  </si>
+  <si>
+    <t>RMA16817</t>
+  </si>
+  <si>
+    <t>RMA16816</t>
+  </si>
+  <si>
+    <t>RMA16815</t>
+  </si>
+  <si>
+    <t>USAI-3DLD1NC-TW1IV18A-SPI-00</t>
+  </si>
+  <si>
+    <t>SAVANT/USAI RECESS 3 DNL SQR TRML  6000-2200KS TUNABLE WHITE  55° BEAM INTEGRAL 0-10V LOW VOLTAGE 18</t>
+  </si>
+  <si>
+    <t>RMA16814</t>
+  </si>
+  <si>
+    <t>SP-323-0350-2</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT MINI X FT/FTIC-0350mA 120V-277V DIML2-TR</t>
+  </si>
+  <si>
+    <t>RMA16813</t>
+  </si>
+  <si>
+    <t>LEM-307-00-27KH</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT PRIMARY HI CRI 2700K</t>
+  </si>
+  <si>
+    <t>RMA16812</t>
+  </si>
+  <si>
+    <t>RMA16811</t>
+  </si>
+  <si>
+    <t>RMA16810</t>
+  </si>
+  <si>
+    <t>RMA16809</t>
+  </si>
+  <si>
+    <t>M1SDF-07X4C-30KS-50-M0-BL-WH-RT-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO SQ DL TRMD 7W 3000K 80 CRI 50° BEAM MICRO DIF LENS BLACK WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA16808</t>
+  </si>
+  <si>
+    <t>RMA16807</t>
+  </si>
+  <si>
+    <t>SP-120-1300-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 6" DL 80W 1300mA 120V-277V DIML6E-EL</t>
+  </si>
+  <si>
+    <t>RMA16806</t>
+  </si>
+  <si>
+    <t>RMA16805</t>
+  </si>
+  <si>
+    <t>B4RDF-16G1-35KS-50-NC-UNV-D6E-EM-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 BASIC RD DL TRMD 16W CLASSIC 35K 80CRI 50° BEAM NC HSG 120-277V ELDO 1% LIN DIM EM</t>
+  </si>
+  <si>
+    <t>B4RDF-16G1-35KS-50-NC-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 BASIC RD DL TRMD 16W CLASSIC 35K 80CRI 50° BEAM NC HSG 120-277V ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>RMA16804</t>
+  </si>
+  <si>
+    <t>LEM-274-00-27KH</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT SLIVERLED HI CRI 2700K</t>
+  </si>
+  <si>
+    <t>RMA16803</t>
+  </si>
+  <si>
+    <t>RMA16802</t>
+  </si>
+  <si>
+    <t>RMA16801</t>
+  </si>
+  <si>
+    <t>RMA16800</t>
+  </si>
+  <si>
+    <t>RMA16799</t>
+  </si>
+  <si>
+    <t>RMA16797</t>
+  </si>
+  <si>
+    <t>RMA16796</t>
+  </si>
+  <si>
+    <t>RMA16795</t>
+  </si>
+  <si>
+    <t>SP-317-0700-PM01</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.2 NC HSG 16W 700mA MOLEX 1% DIM</t>
+  </si>
+  <si>
+    <t>RMA16793</t>
+  </si>
+  <si>
+    <t>SP-125-0500-4-2</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT- NANOLED MULTI NC HSG 4 POS 20W 500mA-120V-277V-DIML2-TR</t>
+  </si>
+  <si>
+    <t>RMA16792</t>
+  </si>
+  <si>
+    <t>MWM04-13H1-30KH-BL-TRM</t>
+  </si>
+  <si>
+    <t>MICRO WALL WASH TRIMLESS/MILLWORK 4 CELL 13W 3000KH BLACK TRIM</t>
+  </si>
+  <si>
+    <t>SP-244-0350-19</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-MICRO NC 13W 350mA DIML19-HT</t>
+  </si>
+  <si>
+    <t>RMA16791</t>
+  </si>
+  <si>
+    <t>RMA16789</t>
+  </si>
+  <si>
+    <t>MDF08-27H1-30KS-50-WH-WH-TRM</t>
+  </si>
+  <si>
+    <t>MICRO DOWNLIGHT FLANGE 8 CELL 27W 3000KS 50° WHITE-WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA16788</t>
+  </si>
+  <si>
+    <t>MDG06-21H1-35KS-50-BL-BL-GLXX-TRM-MOD1</t>
+  </si>
+  <si>
+    <t>MICRO DL FOR WOODWORKS 6 CELL 21W 3500K 80 CRI 50° BLACK-BLACK TRIM MOD=RULAN PG 4-12-52D</t>
+  </si>
+  <si>
+    <t>RMA16787</t>
+  </si>
+  <si>
+    <t>RPB-01-14M2-UNV-D2</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER MINI/NANO-1 FIXTURE MAX-14W M2 350mA 120-277V D2</t>
+  </si>
+  <si>
+    <t>April</t>
   </si>
 </sst>
 </file>
@@ -3234,14 +4047,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F502"/>
+  <dimension ref="A1:F652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J349" sqref="J349"/>
+      <pane ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F652" sqref="F652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -13278,6 +14094,3006 @@
       </c>
       <c r="F502" t="s">
         <v>660</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>960</v>
+      </c>
+      <c r="B503" t="s">
+        <v>961</v>
+      </c>
+      <c r="C503">
+        <v>8</v>
+      </c>
+      <c r="D503" t="s">
+        <v>962</v>
+      </c>
+      <c r="E503" t="s">
+        <v>16</v>
+      </c>
+      <c r="F503" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>963</v>
+      </c>
+      <c r="B504" t="s">
+        <v>964</v>
+      </c>
+      <c r="C504">
+        <v>8</v>
+      </c>
+      <c r="D504" t="s">
+        <v>965</v>
+      </c>
+      <c r="E504" t="s">
+        <v>9</v>
+      </c>
+      <c r="F504" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>966</v>
+      </c>
+      <c r="B505" t="s">
+        <v>967</v>
+      </c>
+      <c r="C505">
+        <v>4</v>
+      </c>
+      <c r="D505" t="s">
+        <v>968</v>
+      </c>
+      <c r="E505" t="s">
+        <v>16</v>
+      </c>
+      <c r="F505" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>969</v>
+      </c>
+      <c r="B506" t="s">
+        <v>970</v>
+      </c>
+      <c r="C506">
+        <v>2</v>
+      </c>
+      <c r="D506" t="s">
+        <v>971</v>
+      </c>
+      <c r="E506" t="s">
+        <v>16</v>
+      </c>
+      <c r="F506" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>969</v>
+      </c>
+      <c r="B507" t="s">
+        <v>972</v>
+      </c>
+      <c r="C507">
+        <v>5</v>
+      </c>
+      <c r="D507" t="s">
+        <v>973</v>
+      </c>
+      <c r="E507" t="s">
+        <v>16</v>
+      </c>
+      <c r="F507" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>974</v>
+      </c>
+      <c r="B508" t="s">
+        <v>975</v>
+      </c>
+      <c r="C508">
+        <v>1</v>
+      </c>
+      <c r="D508" t="s">
+        <v>976</v>
+      </c>
+      <c r="E508" t="s">
+        <v>16</v>
+      </c>
+      <c r="F508" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>977</v>
+      </c>
+      <c r="B509" t="s">
+        <v>978</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509" t="s">
+        <v>979</v>
+      </c>
+      <c r="E509" t="s">
+        <v>16</v>
+      </c>
+      <c r="F509" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>980</v>
+      </c>
+      <c r="B510" t="s">
+        <v>981</v>
+      </c>
+      <c r="C510">
+        <v>1</v>
+      </c>
+      <c r="D510" t="s">
+        <v>982</v>
+      </c>
+      <c r="E510" t="s">
+        <v>16</v>
+      </c>
+      <c r="F510" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>983</v>
+      </c>
+      <c r="B511" t="s">
+        <v>984</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+      <c r="D511" t="s">
+        <v>985</v>
+      </c>
+      <c r="E511" t="s">
+        <v>16</v>
+      </c>
+      <c r="F511" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>986</v>
+      </c>
+      <c r="B512" t="s">
+        <v>987</v>
+      </c>
+      <c r="C512">
+        <v>8</v>
+      </c>
+      <c r="D512" t="s">
+        <v>988</v>
+      </c>
+      <c r="E512" t="s">
+        <v>989</v>
+      </c>
+      <c r="F512" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>986</v>
+      </c>
+      <c r="B513" t="s">
+        <v>987</v>
+      </c>
+      <c r="C513">
+        <v>7</v>
+      </c>
+      <c r="D513" t="s">
+        <v>988</v>
+      </c>
+      <c r="E513" t="s">
+        <v>989</v>
+      </c>
+      <c r="F513" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>986</v>
+      </c>
+      <c r="B514" t="s">
+        <v>990</v>
+      </c>
+      <c r="C514">
+        <v>7</v>
+      </c>
+      <c r="D514" t="s">
+        <v>991</v>
+      </c>
+      <c r="E514" t="s">
+        <v>989</v>
+      </c>
+      <c r="F514" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>986</v>
+      </c>
+      <c r="B515" t="s">
+        <v>343</v>
+      </c>
+      <c r="C515">
+        <v>8</v>
+      </c>
+      <c r="D515" t="s">
+        <v>344</v>
+      </c>
+      <c r="E515" t="s">
+        <v>989</v>
+      </c>
+      <c r="F515" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>986</v>
+      </c>
+      <c r="B516" t="s">
+        <v>990</v>
+      </c>
+      <c r="C516">
+        <v>8</v>
+      </c>
+      <c r="D516" t="s">
+        <v>991</v>
+      </c>
+      <c r="E516" t="s">
+        <v>989</v>
+      </c>
+      <c r="F516" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>986</v>
+      </c>
+      <c r="B517" t="s">
+        <v>343</v>
+      </c>
+      <c r="C517">
+        <v>7</v>
+      </c>
+      <c r="D517" t="s">
+        <v>344</v>
+      </c>
+      <c r="E517" t="s">
+        <v>989</v>
+      </c>
+      <c r="F517" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>992</v>
+      </c>
+      <c r="B518" t="s">
+        <v>993</v>
+      </c>
+      <c r="C518">
+        <v>2</v>
+      </c>
+      <c r="D518" t="s">
+        <v>994</v>
+      </c>
+      <c r="E518" t="s">
+        <v>16</v>
+      </c>
+      <c r="F518" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>995</v>
+      </c>
+      <c r="B519" t="s">
+        <v>240</v>
+      </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
+      <c r="D519" t="s">
+        <v>241</v>
+      </c>
+      <c r="E519" t="s">
+        <v>16</v>
+      </c>
+      <c r="F519" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>996</v>
+      </c>
+      <c r="B520" t="s">
+        <v>997</v>
+      </c>
+      <c r="C520">
+        <v>2</v>
+      </c>
+      <c r="D520" t="s">
+        <v>998</v>
+      </c>
+      <c r="E520" t="s">
+        <v>16</v>
+      </c>
+      <c r="F520" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>996</v>
+      </c>
+      <c r="B521" t="s">
+        <v>999</v>
+      </c>
+      <c r="C521">
+        <v>2</v>
+      </c>
+      <c r="D521" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E521" t="s">
+        <v>16</v>
+      </c>
+      <c r="F521" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C522">
+        <v>4</v>
+      </c>
+      <c r="D522" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E522" t="s">
+        <v>16</v>
+      </c>
+      <c r="F522" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B523" t="s">
+        <v>462</v>
+      </c>
+      <c r="C523">
+        <v>1</v>
+      </c>
+      <c r="D523" t="s">
+        <v>463</v>
+      </c>
+      <c r="E523" t="s">
+        <v>16</v>
+      </c>
+      <c r="F523" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C524">
+        <v>1</v>
+      </c>
+      <c r="D524" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E524" t="s">
+        <v>16</v>
+      </c>
+      <c r="F524" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C525">
+        <v>6</v>
+      </c>
+      <c r="D525" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E525" t="s">
+        <v>16</v>
+      </c>
+      <c r="F525" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C526">
+        <v>2</v>
+      </c>
+      <c r="D526" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E526" t="s">
+        <v>16</v>
+      </c>
+      <c r="F526" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C527">
+        <v>1</v>
+      </c>
+      <c r="D527" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E527" t="s">
+        <v>16</v>
+      </c>
+      <c r="F527" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C528">
+        <v>1</v>
+      </c>
+      <c r="D528" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E528" t="s">
+        <v>16</v>
+      </c>
+      <c r="F528" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B529" t="s">
+        <v>26</v>
+      </c>
+      <c r="C529">
+        <v>1</v>
+      </c>
+      <c r="D529" t="s">
+        <v>27</v>
+      </c>
+      <c r="E529" t="s">
+        <v>9</v>
+      </c>
+      <c r="F529" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+      <c r="D530" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E530" t="s">
+        <v>16</v>
+      </c>
+      <c r="F530" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B531" t="s">
+        <v>203</v>
+      </c>
+      <c r="C531">
+        <v>2</v>
+      </c>
+      <c r="D531" t="s">
+        <v>204</v>
+      </c>
+      <c r="E531" t="s">
+        <v>16</v>
+      </c>
+      <c r="F531" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C532">
+        <v>1</v>
+      </c>
+      <c r="D532" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E532" t="s">
+        <v>324</v>
+      </c>
+      <c r="F532" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B533" t="s">
+        <v>300</v>
+      </c>
+      <c r="C533">
+        <v>1</v>
+      </c>
+      <c r="D533" t="s">
+        <v>301</v>
+      </c>
+      <c r="E533" t="s">
+        <v>16</v>
+      </c>
+      <c r="F533" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C534">
+        <v>1</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E534" t="s">
+        <v>16</v>
+      </c>
+      <c r="F534" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B535" t="s">
+        <v>137</v>
+      </c>
+      <c r="C535">
+        <v>3</v>
+      </c>
+      <c r="D535" t="s">
+        <v>138</v>
+      </c>
+      <c r="E535" t="s">
+        <v>16</v>
+      </c>
+      <c r="F535" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C536">
+        <v>5</v>
+      </c>
+      <c r="D536" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E536" t="s">
+        <v>16</v>
+      </c>
+      <c r="F536" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C537">
+        <v>2</v>
+      </c>
+      <c r="D537" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E537" t="s">
+        <v>9</v>
+      </c>
+      <c r="F537" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C538">
+        <v>6</v>
+      </c>
+      <c r="D538" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E538" t="s">
+        <v>9</v>
+      </c>
+      <c r="F538" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C539">
+        <v>16</v>
+      </c>
+      <c r="D539" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E539" t="s">
+        <v>127</v>
+      </c>
+      <c r="F539" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C540">
+        <v>16</v>
+      </c>
+      <c r="D540" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E540" t="s">
+        <v>127</v>
+      </c>
+      <c r="F540" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C541">
+        <v>16</v>
+      </c>
+      <c r="D541" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E541" t="s">
+        <v>127</v>
+      </c>
+      <c r="F541" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B542" t="s">
+        <v>134</v>
+      </c>
+      <c r="C542">
+        <v>6</v>
+      </c>
+      <c r="D542" t="s">
+        <v>135</v>
+      </c>
+      <c r="E542" t="s">
+        <v>16</v>
+      </c>
+      <c r="F542" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B543" t="s">
+        <v>688</v>
+      </c>
+      <c r="C543">
+        <v>3</v>
+      </c>
+      <c r="D543" t="s">
+        <v>689</v>
+      </c>
+      <c r="E543" t="s">
+        <v>9</v>
+      </c>
+      <c r="F543" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C544">
+        <v>4</v>
+      </c>
+      <c r="D544" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E544" t="s">
+        <v>16</v>
+      </c>
+      <c r="F544" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C545">
+        <v>4</v>
+      </c>
+      <c r="D545" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E545" t="s">
+        <v>16</v>
+      </c>
+      <c r="F545" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B546" t="s">
+        <v>116</v>
+      </c>
+      <c r="C546">
+        <v>4</v>
+      </c>
+      <c r="D546" t="s">
+        <v>117</v>
+      </c>
+      <c r="E546" t="s">
+        <v>16</v>
+      </c>
+      <c r="F546" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B547" t="s">
+        <v>701</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+      <c r="D547" t="s">
+        <v>702</v>
+      </c>
+      <c r="E547" t="s">
+        <v>16</v>
+      </c>
+      <c r="F547" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B548" t="s">
+        <v>517</v>
+      </c>
+      <c r="C548">
+        <v>1</v>
+      </c>
+      <c r="D548" t="s">
+        <v>518</v>
+      </c>
+      <c r="E548" t="s">
+        <v>16</v>
+      </c>
+      <c r="F548" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B549" t="s">
+        <v>52</v>
+      </c>
+      <c r="C549">
+        <v>2</v>
+      </c>
+      <c r="D549" t="s">
+        <v>53</v>
+      </c>
+      <c r="E549" t="s">
+        <v>16</v>
+      </c>
+      <c r="F549" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C550">
+        <v>1</v>
+      </c>
+      <c r="D550" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E550" t="s">
+        <v>163</v>
+      </c>
+      <c r="F550" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C551">
+        <v>2</v>
+      </c>
+      <c r="D551" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E551" t="s">
+        <v>9</v>
+      </c>
+      <c r="F551" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C552">
+        <v>1</v>
+      </c>
+      <c r="D552" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E552" t="s">
+        <v>324</v>
+      </c>
+      <c r="F552" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C553">
+        <v>2</v>
+      </c>
+      <c r="D553" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E553" t="s">
+        <v>9</v>
+      </c>
+      <c r="F553" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C554">
+        <v>2</v>
+      </c>
+      <c r="D554" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E554" t="s">
+        <v>9</v>
+      </c>
+      <c r="F554" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C555">
+        <v>129</v>
+      </c>
+      <c r="D555" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E555" t="s">
+        <v>16</v>
+      </c>
+      <c r="F555" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B556" t="s">
+        <v>701</v>
+      </c>
+      <c r="C556">
+        <v>3</v>
+      </c>
+      <c r="D556" t="s">
+        <v>702</v>
+      </c>
+      <c r="E556" t="s">
+        <v>127</v>
+      </c>
+      <c r="F556" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+      <c r="D557" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E557" t="s">
+        <v>16</v>
+      </c>
+      <c r="F557" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C558">
+        <v>3</v>
+      </c>
+      <c r="D558" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E558" t="s">
+        <v>16</v>
+      </c>
+      <c r="F558" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C559">
+        <v>2</v>
+      </c>
+      <c r="D559" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E559" t="s">
+        <v>16</v>
+      </c>
+      <c r="F559" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B560" t="s">
+        <v>167</v>
+      </c>
+      <c r="C560">
+        <v>15</v>
+      </c>
+      <c r="D560" t="s">
+        <v>168</v>
+      </c>
+      <c r="E560" t="s">
+        <v>16</v>
+      </c>
+      <c r="F560" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B561" t="s">
+        <v>621</v>
+      </c>
+      <c r="C561">
+        <v>1</v>
+      </c>
+      <c r="D561" t="s">
+        <v>622</v>
+      </c>
+      <c r="E561" t="s">
+        <v>16</v>
+      </c>
+      <c r="F561" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C562">
+        <v>1</v>
+      </c>
+      <c r="D562" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E562" t="s">
+        <v>9</v>
+      </c>
+      <c r="F562" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E563" t="s">
+        <v>9</v>
+      </c>
+      <c r="F563" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
+      <c r="D564" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E564" t="s">
+        <v>989</v>
+      </c>
+      <c r="F564" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C565">
+        <v>10</v>
+      </c>
+      <c r="D565" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E565" t="s">
+        <v>989</v>
+      </c>
+      <c r="F565" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B566" t="s">
+        <v>610</v>
+      </c>
+      <c r="C566">
+        <v>1</v>
+      </c>
+      <c r="D566" t="s">
+        <v>611</v>
+      </c>
+      <c r="E566" t="s">
+        <v>9</v>
+      </c>
+      <c r="F566" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B567" t="s">
+        <v>501</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567" t="s">
+        <v>502</v>
+      </c>
+      <c r="E567" t="s">
+        <v>16</v>
+      </c>
+      <c r="F567" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E568" t="s">
+        <v>9</v>
+      </c>
+      <c r="F568" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B569" t="s">
+        <v>424</v>
+      </c>
+      <c r="C569">
+        <v>2</v>
+      </c>
+      <c r="D569" t="s">
+        <v>425</v>
+      </c>
+      <c r="E569" t="s">
+        <v>16</v>
+      </c>
+      <c r="F569" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B570" t="s">
+        <v>406</v>
+      </c>
+      <c r="C570">
+        <v>2</v>
+      </c>
+      <c r="D570" t="s">
+        <v>407</v>
+      </c>
+      <c r="E570" t="s">
+        <v>16</v>
+      </c>
+      <c r="F570" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B571" t="s">
+        <v>701</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571" t="s">
+        <v>702</v>
+      </c>
+      <c r="E571" t="s">
+        <v>16</v>
+      </c>
+      <c r="F571" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
+      <c r="D572" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E572" t="s">
+        <v>9</v>
+      </c>
+      <c r="F572" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B573" t="s">
+        <v>876</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+      <c r="D573" t="s">
+        <v>877</v>
+      </c>
+      <c r="E573" t="s">
+        <v>16</v>
+      </c>
+      <c r="F573" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C574">
+        <v>6</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E574" t="s">
+        <v>16</v>
+      </c>
+      <c r="F574" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C575">
+        <v>3</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E575" t="s">
+        <v>16</v>
+      </c>
+      <c r="F575" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B576" t="s">
+        <v>343</v>
+      </c>
+      <c r="C576">
+        <v>80</v>
+      </c>
+      <c r="D576" t="s">
+        <v>344</v>
+      </c>
+      <c r="E576" t="s">
+        <v>9</v>
+      </c>
+      <c r="F576" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B577" t="s">
+        <v>532</v>
+      </c>
+      <c r="C577">
+        <v>28</v>
+      </c>
+      <c r="D577" t="s">
+        <v>533</v>
+      </c>
+      <c r="E577" t="s">
+        <v>9</v>
+      </c>
+      <c r="F577" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C578">
+        <v>2</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E578" t="s">
+        <v>16</v>
+      </c>
+      <c r="F578" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B579" t="s">
+        <v>343</v>
+      </c>
+      <c r="C579">
+        <v>60</v>
+      </c>
+      <c r="D579" t="s">
+        <v>344</v>
+      </c>
+      <c r="E579" t="s">
+        <v>9</v>
+      </c>
+      <c r="F579" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B580" t="s">
+        <v>630</v>
+      </c>
+      <c r="C580">
+        <v>10</v>
+      </c>
+      <c r="D580" t="s">
+        <v>631</v>
+      </c>
+      <c r="E580" t="s">
+        <v>16</v>
+      </c>
+      <c r="F580" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C581">
+        <v>1</v>
+      </c>
+      <c r="D581" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E581" t="s">
+        <v>127</v>
+      </c>
+      <c r="F581" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B582" t="s">
+        <v>145</v>
+      </c>
+      <c r="C582">
+        <v>1</v>
+      </c>
+      <c r="D582" t="s">
+        <v>146</v>
+      </c>
+      <c r="E582" t="s">
+        <v>16</v>
+      </c>
+      <c r="F582" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B583" t="s">
+        <v>170</v>
+      </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
+      <c r="D583" t="s">
+        <v>171</v>
+      </c>
+      <c r="E583" t="s">
+        <v>16</v>
+      </c>
+      <c r="F583" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C584">
+        <v>8</v>
+      </c>
+      <c r="D584" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E584" t="s">
+        <v>9</v>
+      </c>
+      <c r="F584" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+      <c r="D585" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E585" t="s">
+        <v>16</v>
+      </c>
+      <c r="F585" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B586" t="s">
+        <v>725</v>
+      </c>
+      <c r="C586">
+        <v>5</v>
+      </c>
+      <c r="D586" t="s">
+        <v>726</v>
+      </c>
+      <c r="E586" t="s">
+        <v>16</v>
+      </c>
+      <c r="F586" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B587" t="s">
+        <v>277</v>
+      </c>
+      <c r="C587">
+        <v>1</v>
+      </c>
+      <c r="D587" t="s">
+        <v>278</v>
+      </c>
+      <c r="E587" t="s">
+        <v>16</v>
+      </c>
+      <c r="F587" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B588" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C588">
+        <v>8</v>
+      </c>
+      <c r="D588" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E588" t="s">
+        <v>127</v>
+      </c>
+      <c r="F588" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B589" t="s">
+        <v>517</v>
+      </c>
+      <c r="C589">
+        <v>4</v>
+      </c>
+      <c r="D589" t="s">
+        <v>518</v>
+      </c>
+      <c r="E589" t="s">
+        <v>16</v>
+      </c>
+      <c r="F589" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B590" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C590">
+        <v>1</v>
+      </c>
+      <c r="D590" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E590" t="s">
+        <v>127</v>
+      </c>
+      <c r="F590" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B591" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C591">
+        <v>1</v>
+      </c>
+      <c r="D591" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E591" t="s">
+        <v>16</v>
+      </c>
+      <c r="F591" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B592" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C592">
+        <v>54</v>
+      </c>
+      <c r="D592" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E592" t="s">
+        <v>9</v>
+      </c>
+      <c r="F592" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B593" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C593">
+        <v>1</v>
+      </c>
+      <c r="D593" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E593" t="s">
+        <v>9</v>
+      </c>
+      <c r="F593" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B594" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C594">
+        <v>3</v>
+      </c>
+      <c r="D594" t="s">
+        <v>735</v>
+      </c>
+      <c r="E594" t="s">
+        <v>16</v>
+      </c>
+      <c r="F594" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B595" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C595">
+        <v>3</v>
+      </c>
+      <c r="D595" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E595" t="s">
+        <v>9</v>
+      </c>
+      <c r="F595" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B596" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
+      <c r="D596" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E596" t="s">
+        <v>16</v>
+      </c>
+      <c r="F596" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B597" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C597">
+        <v>1</v>
+      </c>
+      <c r="D597" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E597" t="s">
+        <v>16</v>
+      </c>
+      <c r="F597" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B598" t="s">
+        <v>179</v>
+      </c>
+      <c r="C598">
+        <v>2</v>
+      </c>
+      <c r="D598" t="s">
+        <v>180</v>
+      </c>
+      <c r="E598" t="s">
+        <v>16</v>
+      </c>
+      <c r="F598" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B599" t="s">
+        <v>85</v>
+      </c>
+      <c r="C599">
+        <v>1</v>
+      </c>
+      <c r="D599" t="s">
+        <v>86</v>
+      </c>
+      <c r="E599" t="s">
+        <v>16</v>
+      </c>
+      <c r="F599" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B600" t="s">
+        <v>87</v>
+      </c>
+      <c r="C600">
+        <v>1</v>
+      </c>
+      <c r="D600" t="s">
+        <v>88</v>
+      </c>
+      <c r="E600" t="s">
+        <v>16</v>
+      </c>
+      <c r="F600" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B601" t="s">
+        <v>87</v>
+      </c>
+      <c r="C601">
+        <v>2</v>
+      </c>
+      <c r="D601" t="s">
+        <v>88</v>
+      </c>
+      <c r="E601" t="s">
+        <v>16</v>
+      </c>
+      <c r="F601" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B602" t="s">
+        <v>273</v>
+      </c>
+      <c r="C602">
+        <v>1</v>
+      </c>
+      <c r="D602" t="s">
+        <v>274</v>
+      </c>
+      <c r="E602" t="s">
+        <v>16</v>
+      </c>
+      <c r="F602" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B603" t="s">
+        <v>49</v>
+      </c>
+      <c r="C603">
+        <v>1</v>
+      </c>
+      <c r="D603" t="s">
+        <v>50</v>
+      </c>
+      <c r="E603" t="s">
+        <v>16</v>
+      </c>
+      <c r="F603" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B604" t="s">
+        <v>151</v>
+      </c>
+      <c r="C604">
+        <v>6</v>
+      </c>
+      <c r="D604" t="s">
+        <v>152</v>
+      </c>
+      <c r="E604" t="s">
+        <v>16</v>
+      </c>
+      <c r="F604" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B605" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C605">
+        <v>2</v>
+      </c>
+      <c r="D605" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E605" t="s">
+        <v>9</v>
+      </c>
+      <c r="F605" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B606" t="s">
+        <v>343</v>
+      </c>
+      <c r="C606">
+        <v>2</v>
+      </c>
+      <c r="D606" t="s">
+        <v>344</v>
+      </c>
+      <c r="E606" t="s">
+        <v>9</v>
+      </c>
+      <c r="F606" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B607" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C607">
+        <v>2</v>
+      </c>
+      <c r="D607" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E607" t="s">
+        <v>9</v>
+      </c>
+      <c r="F607" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B608" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C608">
+        <v>13</v>
+      </c>
+      <c r="D608" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E608" t="s">
+        <v>16</v>
+      </c>
+      <c r="F608" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B609" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C609">
+        <v>1</v>
+      </c>
+      <c r="D609" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E609" t="s">
+        <v>9</v>
+      </c>
+      <c r="F609" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B610" t="s">
+        <v>55</v>
+      </c>
+      <c r="C610">
+        <v>2</v>
+      </c>
+      <c r="D610" t="s">
+        <v>56</v>
+      </c>
+      <c r="E610" t="s">
+        <v>16</v>
+      </c>
+      <c r="F610" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B611" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C611">
+        <v>1</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E611" t="s">
+        <v>16</v>
+      </c>
+      <c r="F611" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B612" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C612">
+        <v>1</v>
+      </c>
+      <c r="D612" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E612" t="s">
+        <v>16</v>
+      </c>
+      <c r="F612" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B613" t="s">
+        <v>129</v>
+      </c>
+      <c r="C613">
+        <v>3</v>
+      </c>
+      <c r="D613" t="s">
+        <v>130</v>
+      </c>
+      <c r="E613" t="s">
+        <v>16</v>
+      </c>
+      <c r="F613" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B614" t="s">
+        <v>33</v>
+      </c>
+      <c r="C614">
+        <v>3</v>
+      </c>
+      <c r="D614" t="s">
+        <v>34</v>
+      </c>
+      <c r="E614" t="s">
+        <v>16</v>
+      </c>
+      <c r="F614" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B615" t="s">
+        <v>675</v>
+      </c>
+      <c r="C615">
+        <v>2</v>
+      </c>
+      <c r="D615" t="s">
+        <v>676</v>
+      </c>
+      <c r="E615" t="s">
+        <v>16</v>
+      </c>
+      <c r="F615" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B616" t="s">
+        <v>734</v>
+      </c>
+      <c r="C616">
+        <v>1</v>
+      </c>
+      <c r="D616" t="s">
+        <v>735</v>
+      </c>
+      <c r="E616" t="s">
+        <v>16</v>
+      </c>
+      <c r="F616" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B617" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C617">
+        <v>1</v>
+      </c>
+      <c r="D617" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E617" t="s">
+        <v>16</v>
+      </c>
+      <c r="F617" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C618">
+        <v>4</v>
+      </c>
+      <c r="D618" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E618" t="s">
+        <v>163</v>
+      </c>
+      <c r="F618" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B619" t="s">
+        <v>145</v>
+      </c>
+      <c r="C619">
+        <v>1</v>
+      </c>
+      <c r="D619" t="s">
+        <v>146</v>
+      </c>
+      <c r="E619" t="s">
+        <v>16</v>
+      </c>
+      <c r="F619" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B620" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C620">
+        <v>1</v>
+      </c>
+      <c r="D620" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E620" t="s">
+        <v>16</v>
+      </c>
+      <c r="F620" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C621">
+        <v>1</v>
+      </c>
+      <c r="D621" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E621" t="s">
+        <v>16</v>
+      </c>
+      <c r="F621" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B622" t="s">
+        <v>70</v>
+      </c>
+      <c r="C622">
+        <v>1</v>
+      </c>
+      <c r="D622" t="s">
+        <v>71</v>
+      </c>
+      <c r="E622" t="s">
+        <v>16</v>
+      </c>
+      <c r="F622" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B623" t="s">
+        <v>725</v>
+      </c>
+      <c r="C623">
+        <v>1</v>
+      </c>
+      <c r="D623" t="s">
+        <v>726</v>
+      </c>
+      <c r="E623" t="s">
+        <v>16</v>
+      </c>
+      <c r="F623" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B624" t="s">
+        <v>489</v>
+      </c>
+      <c r="C624">
+        <v>1</v>
+      </c>
+      <c r="D624" t="s">
+        <v>490</v>
+      </c>
+      <c r="E624" t="s">
+        <v>16</v>
+      </c>
+      <c r="F624" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B625" t="s">
+        <v>691</v>
+      </c>
+      <c r="C625">
+        <v>1</v>
+      </c>
+      <c r="D625" t="s">
+        <v>692</v>
+      </c>
+      <c r="E625" t="s">
+        <v>16</v>
+      </c>
+      <c r="F625" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C626">
+        <v>2</v>
+      </c>
+      <c r="D626" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E626" t="s">
+        <v>16</v>
+      </c>
+      <c r="F626" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B627" t="s">
+        <v>148</v>
+      </c>
+      <c r="C627">
+        <v>60</v>
+      </c>
+      <c r="D627" t="s">
+        <v>149</v>
+      </c>
+      <c r="E627" t="s">
+        <v>127</v>
+      </c>
+      <c r="F627" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B628" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C628">
+        <v>3</v>
+      </c>
+      <c r="D628" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E628" t="s">
+        <v>9</v>
+      </c>
+      <c r="F628" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B629" t="s">
+        <v>145</v>
+      </c>
+      <c r="C629">
+        <v>1</v>
+      </c>
+      <c r="D629" t="s">
+        <v>146</v>
+      </c>
+      <c r="E629" t="s">
+        <v>16</v>
+      </c>
+      <c r="F629" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B630" t="s">
+        <v>148</v>
+      </c>
+      <c r="C630">
+        <v>6</v>
+      </c>
+      <c r="D630" t="s">
+        <v>149</v>
+      </c>
+      <c r="E630" t="s">
+        <v>9</v>
+      </c>
+      <c r="F630" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C631">
+        <v>6</v>
+      </c>
+      <c r="D631" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E631" t="s">
+        <v>9</v>
+      </c>
+      <c r="F631" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C632">
+        <v>94</v>
+      </c>
+      <c r="D632" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E632" t="s">
+        <v>9</v>
+      </c>
+      <c r="F632" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B633" t="s">
+        <v>148</v>
+      </c>
+      <c r="C633">
+        <v>94</v>
+      </c>
+      <c r="D633" t="s">
+        <v>149</v>
+      </c>
+      <c r="E633" t="s">
+        <v>9</v>
+      </c>
+      <c r="F633" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C634">
+        <v>1</v>
+      </c>
+      <c r="D634" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E634" t="s">
+        <v>16</v>
+      </c>
+      <c r="F634" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B635" t="s">
+        <v>273</v>
+      </c>
+      <c r="C635">
+        <v>10</v>
+      </c>
+      <c r="D635" t="s">
+        <v>274</v>
+      </c>
+      <c r="E635" t="s">
+        <v>16</v>
+      </c>
+      <c r="F635" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B636" t="s">
+        <v>87</v>
+      </c>
+      <c r="C636">
+        <v>26</v>
+      </c>
+      <c r="D636" t="s">
+        <v>88</v>
+      </c>
+      <c r="E636" t="s">
+        <v>16</v>
+      </c>
+      <c r="F636" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B637" t="s">
+        <v>73</v>
+      </c>
+      <c r="C637">
+        <v>1</v>
+      </c>
+      <c r="D637" t="s">
+        <v>74</v>
+      </c>
+      <c r="E637" t="s">
+        <v>16</v>
+      </c>
+      <c r="F637" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B638" t="s">
+        <v>179</v>
+      </c>
+      <c r="C638">
+        <v>12</v>
+      </c>
+      <c r="D638" t="s">
+        <v>180</v>
+      </c>
+      <c r="E638" t="s">
+        <v>16</v>
+      </c>
+      <c r="F638" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B639" t="s">
+        <v>49</v>
+      </c>
+      <c r="C639">
+        <v>1</v>
+      </c>
+      <c r="D639" t="s">
+        <v>50</v>
+      </c>
+      <c r="E639" t="s">
+        <v>16</v>
+      </c>
+      <c r="F639" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B640" t="s">
+        <v>21</v>
+      </c>
+      <c r="C640">
+        <v>4</v>
+      </c>
+      <c r="D640" t="s">
+        <v>22</v>
+      </c>
+      <c r="E640" t="s">
+        <v>16</v>
+      </c>
+      <c r="F640" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B641" t="s">
+        <v>621</v>
+      </c>
+      <c r="C641">
+        <v>9</v>
+      </c>
+      <c r="D641" t="s">
+        <v>622</v>
+      </c>
+      <c r="E641" t="s">
+        <v>16</v>
+      </c>
+      <c r="F641" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B642" t="s">
+        <v>49</v>
+      </c>
+      <c r="C642">
+        <v>2</v>
+      </c>
+      <c r="D642" t="s">
+        <v>50</v>
+      </c>
+      <c r="E642" t="s">
+        <v>16</v>
+      </c>
+      <c r="F642" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B643" t="s">
+        <v>876</v>
+      </c>
+      <c r="C643">
+        <v>2</v>
+      </c>
+      <c r="D643" t="s">
+        <v>877</v>
+      </c>
+      <c r="E643" t="s">
+        <v>16</v>
+      </c>
+      <c r="F643" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C644">
+        <v>1</v>
+      </c>
+      <c r="D644" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E644" t="s">
+        <v>16</v>
+      </c>
+      <c r="F644" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C645">
+        <v>3</v>
+      </c>
+      <c r="D645" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E645" t="s">
+        <v>16</v>
+      </c>
+      <c r="F645" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B646" t="s">
+        <v>216</v>
+      </c>
+      <c r="C646">
+        <v>12</v>
+      </c>
+      <c r="D646" t="s">
+        <v>217</v>
+      </c>
+      <c r="E646" t="s">
+        <v>16</v>
+      </c>
+      <c r="F646" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C647">
+        <v>1</v>
+      </c>
+      <c r="D647" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E647" t="s">
+        <v>16</v>
+      </c>
+      <c r="F647" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C648">
+        <v>1</v>
+      </c>
+      <c r="D648" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E648" t="s">
+        <v>16</v>
+      </c>
+      <c r="F648" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B649" t="s">
+        <v>424</v>
+      </c>
+      <c r="C649">
+        <v>8</v>
+      </c>
+      <c r="D649" t="s">
+        <v>425</v>
+      </c>
+      <c r="E649" t="s">
+        <v>16</v>
+      </c>
+      <c r="F649" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C650">
+        <v>1</v>
+      </c>
+      <c r="D650" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E650" t="s">
+        <v>16</v>
+      </c>
+      <c r="F650" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C651">
+        <v>1</v>
+      </c>
+      <c r="D651" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E651" t="s">
+        <v>16</v>
+      </c>
+      <c r="F651" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C652">
+        <v>1</v>
+      </c>
+      <c r="D652" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E652" t="s">
+        <v>16</v>
+      </c>
+      <c r="F652" t="s">
+        <v>1230</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Failure_rate/2022/YTD_2022.xlsx
+++ b/Code/Failure_rate/2022/YTD_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\project_files\USAI\Code\Failure_rate\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF89544-0EAE-473F-B909-7726A10A191C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0B4D0A-E64A-43FC-8178-E2C7CF057085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="16635" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16635" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4060" uniqueCount="1507">
   <si>
     <t>RMA ID</t>
   </si>
@@ -3714,13 +3714,842 @@
   </si>
   <si>
     <t>April</t>
+  </si>
+  <si>
+    <t>RMA17032</t>
+  </si>
+  <si>
+    <t>SP-251-1-500</t>
+  </si>
+  <si>
+    <t>REPLACEMENT CONTROLLER-WGD 2.0 MINI NC-IC HSG 500mA W/CAP</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>SP-223-0500-6A</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED MINI WGD NC1-18W-500mA-120V-277V-DIML6A-LU</t>
+  </si>
+  <si>
+    <t>LEM-204-00-3022KH</t>
+  </si>
+  <si>
+    <t>RMA17031</t>
+  </si>
+  <si>
+    <t>RMA17030</t>
+  </si>
+  <si>
+    <t>SP-464-0350-4P</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-MINI BASIC-9W 350mA NC1/NCIC/NCCP HSG DIML4P</t>
+  </si>
+  <si>
+    <t>RMA17029</t>
+  </si>
+  <si>
+    <t>LRTA6-8480-C2-30KS-20-NC1-277V-DIML6A</t>
+  </si>
+  <si>
+    <t>BEVELED 5.0 ROUND TRIMMED-80W-3000KS-40° TILT ADJ-20° BEAM-NC1 HSG 1 1/8" MAX CEILING-277V-DIML6A</t>
+  </si>
+  <si>
+    <t>RMA17028</t>
+  </si>
+  <si>
+    <t>M1RDF-07X4C-35KS-35-M0-WH-WH-NC-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO RD DL TRMD 7W 3500K 80 CRI 35° BEAM MICRO DIF LENS WHITE WHITE TRIM</t>
+  </si>
+  <si>
+    <t>M1RDF-07X4C-NC-RM-HSG</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO RD DL TRMD 7W NC RM HSG</t>
+  </si>
+  <si>
+    <t>RMA17027</t>
+  </si>
+  <si>
+    <t>RMA17026</t>
+  </si>
+  <si>
+    <t>RMA17025</t>
+  </si>
+  <si>
+    <t>LEM-307-00-35KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT PRIMARY STD CRI 3500K</t>
+  </si>
+  <si>
+    <t>RMA17024</t>
+  </si>
+  <si>
+    <t>RMA17023</t>
+  </si>
+  <si>
+    <t>RMA17022</t>
+  </si>
+  <si>
+    <t>SP-245-0</t>
+  </si>
+  <si>
+    <t>BATTERY PACK REPLACEMENT - BEVELED 2.0 WGD/CSD NC HSG</t>
+  </si>
+  <si>
+    <t>RMA17021</t>
+  </si>
+  <si>
+    <t>RMA17020</t>
+  </si>
+  <si>
+    <t>RMA17019</t>
+  </si>
+  <si>
+    <t>USAI-3DL-LED-FC1XX-00</t>
+  </si>
+  <si>
+    <t>RECESS 3 LED REPLACEMENT FC1</t>
+  </si>
+  <si>
+    <t>RMA17018</t>
+  </si>
+  <si>
+    <t>SP-141-1000-4E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.1 NCSM HSG 24 WATT 1000mA-120V-277V-DIML4E-LU</t>
+  </si>
+  <si>
+    <t>SP-154-0500-4E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED MINI RT/NCSL 20W-500mA-120V-277V-DIML4E-LU</t>
+  </si>
+  <si>
+    <t>P2-110C</t>
+  </si>
+  <si>
+    <t>BEVELED 3" DL CONCENTRIC RING</t>
+  </si>
+  <si>
+    <t>RMA17017</t>
+  </si>
+  <si>
+    <t>RMA17015</t>
+  </si>
+  <si>
+    <t>RMA17014</t>
+  </si>
+  <si>
+    <t>RMA17013</t>
+  </si>
+  <si>
+    <t>SP-322-0225-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT DRIVER-REPLACEMENT MINI X1/X3/WG2/CS1 NC1/NCIC/NCCP-225mA 120V-277V DIML6E-EL</t>
+  </si>
+  <si>
+    <t>RMA17012</t>
+  </si>
+  <si>
+    <t>RMA17011</t>
+  </si>
+  <si>
+    <t>B4SWL-24C3-30KS-W2-FT-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 FLAT SQ WW TRML 24W CLASSIC 30K 80CRI FT HSG 120-277V ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>B3SDF-S-AC-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL/ADJ TRMD SOLITE LENS ANODIZED CLEAR MATTE WHITE</t>
+  </si>
+  <si>
+    <t>B3SDF-20X3-30KS-65-FT-UNV-D22-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL TRMD 20W CLASSIC 30K 80CRI 65° BEAM FT HSG 120-277V D22 ERP PHASE/0-10 DIM</t>
+  </si>
+  <si>
+    <t>B4SWL-D2-AC-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED SQUARE TRML WW 5555 LENS DIFFUSION CLEAR MATTE ANOD TRIM</t>
+  </si>
+  <si>
+    <t>RMA17010</t>
+  </si>
+  <si>
+    <t>B3SAF-25-S-WH-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL/ADJ TRMD 0°-40° TILT SOLITE LENS -WHITE BEVEL-WHITE FLANGE TRIM</t>
+  </si>
+  <si>
+    <t>RMA17009</t>
+  </si>
+  <si>
+    <t>M1SDF-07X4C-30KH-25-M0-WH-WH-NC-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO SQ DL TRMD 7W 3000K 90 CRI 25° BEAM MICRO DIF LENS WHITE WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA17008</t>
+  </si>
+  <si>
+    <t>RMA17007</t>
+  </si>
+  <si>
+    <t>RPD-04-11X4C-UNV-D6E</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER LITTLEONES-4 FIXTURE MAX-11W X4C 1050mA 120-277V D6E</t>
+  </si>
+  <si>
+    <t>RMA17006</t>
+  </si>
+  <si>
+    <t>RMA17005</t>
+  </si>
+  <si>
+    <t>SAMPLE BAG LITTLEONES</t>
+  </si>
+  <si>
+    <t>RMA17004</t>
+  </si>
+  <si>
+    <t>B3RDF-S-SC-SC-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI ROUND DL/ADJ TRMD SOLITE LENS CONDUIT SILVER</t>
+  </si>
+  <si>
+    <t>B3RDF-20X3-40KS-55-FT-UNV-D22-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD DL TRMD 20W CLASSIC 40K 80CRI 55° BEAM FT HSG 120-277V D22</t>
+  </si>
+  <si>
+    <t>RMA17003</t>
+  </si>
+  <si>
+    <t>MDF08-27H1-NC-120V-D19-HSG</t>
+  </si>
+  <si>
+    <t>MICRO DOWNLIGHT FLANGE 8 CELL 27W NC 120V DIML19-HSG</t>
+  </si>
+  <si>
+    <t>RMA17002</t>
+  </si>
+  <si>
+    <t>RMA17001</t>
+  </si>
+  <si>
+    <t>RMA17000</t>
+  </si>
+  <si>
+    <t>B3SDF-S-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELEDMINI SQ DL/ADJ TRMD SOLITE LENS WHITE</t>
+  </si>
+  <si>
+    <t>RMA16998</t>
+  </si>
+  <si>
+    <t>RMA16996</t>
+  </si>
+  <si>
+    <t>B4SWF-S-WH-WH-TRM-MOD1</t>
+  </si>
+  <si>
+    <t>BEVELED SQUARE TRMD WW WHITE TRIM MOD=SOLITE LENS</t>
+  </si>
+  <si>
+    <t>RMA16995</t>
+  </si>
+  <si>
+    <t>RMA16994</t>
+  </si>
+  <si>
+    <t>RPB-01-15X3-UNV-D4H</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER MINI/NANO-1 FIXTURE MAX-15W X3 350mA 120-277V D4H</t>
+  </si>
+  <si>
+    <t>RMA16993</t>
+  </si>
+  <si>
+    <t>BLRD5-12C3-30KH-25-S-WH-SJ-UNV-D2</t>
+  </si>
+  <si>
+    <t>BEVELED BLOCK RD 12W 3000KH-25° DL-SOLITE LENS-WHITE-SJ MOUNT 120-277V DIML2</t>
+  </si>
+  <si>
+    <t>RMA16992</t>
+  </si>
+  <si>
+    <t>SP-354-0350-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-BEVELED 2.2 NCSM HSG 16W 350mA WG2 120V-277V ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>RMA16991</t>
+  </si>
+  <si>
+    <t>RMA16990</t>
+  </si>
+  <si>
+    <t>SP-435-0350-6E</t>
+  </si>
+  <si>
+    <t>RMA16989</t>
+  </si>
+  <si>
+    <t>B3RDM-S-BZ-TRM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEVELED MINI ROUND DL/ADJ TRML SOLITE LENS-BRONZE BEVEL TRIM								
+</t>
+  </si>
+  <si>
+    <t>B3RWM-D1-BZ-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI ROUND WW TRML -BRONZE BEVEL TRIM</t>
+  </si>
+  <si>
+    <t>RMA16988</t>
+  </si>
+  <si>
+    <t>B3RDM-S-BL-TRM</t>
+  </si>
+  <si>
+    <t>RMA16987</t>
+  </si>
+  <si>
+    <t>LNRP3-9014-M2-21-21-06-27KS-50-SOF-PJ2-RM</t>
+  </si>
+  <si>
+    <t>NANO LED NXT PENDANT 14W-BLACK-06" OAL-2700KS-50°-SOF-PJ2-RM</t>
+  </si>
+  <si>
+    <t>RMA16986</t>
+  </si>
+  <si>
+    <t>B3SDF-20X3-30KS-65-NC1-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL TRMD 20W CLASSIC 30K 80CRI 65° BEAM NC1 HSG 120-277V D6E ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>B3SAF-20X3-30KS-45-NC1-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ ADJ TRMD 20W CLASSIC 30K 80CRI 45° BEAM NC1 HSG 120-277V D6E</t>
+  </si>
+  <si>
+    <t>RMA16985</t>
+  </si>
+  <si>
+    <t>RPA-03-27H1-UNV-D6E</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER MICRO-3 FIXTURES MAX-27W H1 700mA 120-277V D6E</t>
+  </si>
+  <si>
+    <t>RMA16984</t>
+  </si>
+  <si>
+    <t>SP-346-0500-22</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-BEVELED CYL 500mA 24-42V 120/277-DIML22</t>
+  </si>
+  <si>
+    <t>RMA16983</t>
+  </si>
+  <si>
+    <t>RMA16982</t>
+  </si>
+  <si>
+    <t>CBRD10-36E1-35KS-90-S-WH-PJ3-UNV-D6E</t>
+  </si>
+  <si>
+    <t>2.2 CYLINDER RD DL 36W CW 3500KS 90° BEAM-SOLITE LENS-WHITE-PJ MOUNT 95" 120-277V D6E</t>
+  </si>
+  <si>
+    <t>RMA16981</t>
+  </si>
+  <si>
+    <t>RMA16980</t>
+  </si>
+  <si>
+    <t>B4SDF-S-WH-WH-TRM</t>
+  </si>
+  <si>
+    <t>RMA16979</t>
+  </si>
+  <si>
+    <t>SP-323-0350-19</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT MINI X FT/FTIC-0350mA 120V-277V DIML19-HT</t>
+  </si>
+  <si>
+    <t>RMA16978</t>
+  </si>
+  <si>
+    <t>RMA16977</t>
+  </si>
+  <si>
+    <t>MDL02-08H1-30KS-35-SM-TRM</t>
+  </si>
+  <si>
+    <t>MICRO DOWNLIGHT TRIMLESS 2 CELL 8W 3000K 80 CRI 35° SILVER MATTE TRIM</t>
+  </si>
+  <si>
+    <t>RMA16976</t>
+  </si>
+  <si>
+    <t>RMA16975</t>
+  </si>
+  <si>
+    <t>SP-322-0350-3</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT DRIVER-REPLACEMENT MINI X1/X3/WG2/CS1 NC1/NCIC/NCCP-0350mA 120V-277V DIML3-TR</t>
+  </si>
+  <si>
+    <t>RMA16974</t>
+  </si>
+  <si>
+    <t>SP-141-1000-6A</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.1 NCSM HSG 24 WATT 1000mA-120V-277V-DIML6A-EL</t>
+  </si>
+  <si>
+    <t>RMA16973</t>
+  </si>
+  <si>
+    <t>RMA16972</t>
+  </si>
+  <si>
+    <t>SP-420-0250-22</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENTMINI PRIMARY EC 15W 250mA D22</t>
+  </si>
+  <si>
+    <t>RMA16971</t>
+  </si>
+  <si>
+    <t>LED-203-30B</t>
+  </si>
+  <si>
+    <t>NANO LED CREE MTG2 3000K STD CRI</t>
+  </si>
+  <si>
+    <t>LED-240-H00-30E</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE-(7) CREE XPL, 19-23V, 8-33W, .35-1.4A HI CRI 3000K</t>
+  </si>
+  <si>
+    <t>LED-203-30-HIB</t>
+  </si>
+  <si>
+    <t>NANO LED CREE MTG2-3000K HI CRI</t>
+  </si>
+  <si>
+    <t>RMA16970</t>
+  </si>
+  <si>
+    <t>RMA16969</t>
+  </si>
+  <si>
+    <t>SP-521-09X1M-D4H</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT FOR REMOTE ENCLOSURE-9W X1M-D4H</t>
+  </si>
+  <si>
+    <t>RMA16968</t>
+  </si>
+  <si>
+    <t>USAI-3CR-DRIVER-NC-CXXIP15A-00</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENTMINI PRIMARY NC 15W 350mA D21</t>
+  </si>
+  <si>
+    <t>RMA16967</t>
+  </si>
+  <si>
+    <t>RMA16966</t>
+  </si>
+  <si>
+    <t>LEM-239-00-30KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.2 ADJ 80+CRI 3000K-WIDE ARRAY</t>
+  </si>
+  <si>
+    <t>RMA16965</t>
+  </si>
+  <si>
+    <t>C4SB-TZ-09X3-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>CONNECT 4" SQUARE BEVEL TZ HSG 09W CLASSIC 120-277V D6E ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>C4SBD-09X3-40KS-55-S-GW-TRM</t>
+  </si>
+  <si>
+    <t>CONNECT 4" SQUARE BEVEL DL 09W 40K 80CRI 55° BEAM SOLITE LENS  GLOBAL WHITE TRM</t>
+  </si>
+  <si>
+    <t>RMA16964</t>
+  </si>
+  <si>
+    <t>SP-518-01-RD-L-M-F010</t>
+  </si>
+  <si>
+    <t>LO MICRO UNV ADPT CONVERSION KIT-RND TRIMLESS TO MILLWORK-WHITE</t>
+  </si>
+  <si>
+    <t>RMA16963</t>
+  </si>
+  <si>
+    <t>PXB-48-WH</t>
+  </si>
+  <si>
+    <t>RIGID STEM ACCESORY 5/8" DIAMETER FIELD CUTTABLE STEM- 48" WHITE</t>
+  </si>
+  <si>
+    <t>BLSD5-16C3-35KS-90-S-WH-PR2-UNV-D6F</t>
+  </si>
+  <si>
+    <t>BEVELED BLOCK SQ 16W 3500KS-90° DL-SOLITE LENS-WHITE-PR MOUNT 25"-48" 120-277V DIML6F</t>
+  </si>
+  <si>
+    <t>B4SDF-16C3-35KS-50-FT-UNV-D6F-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 SQ DL TRMD 16W CLASSIC 35K 80CRI 50° BEAM FT HSG 120-277V ELDO 1% LOG DIM</t>
+  </si>
+  <si>
+    <t>RMA16962</t>
+  </si>
+  <si>
+    <t>B3RDF-S-WH-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELEDMINI ROUND DL/ADJ TRMD SOLITE LENS WHITE</t>
+  </si>
+  <si>
+    <t>RMA16961</t>
+  </si>
+  <si>
+    <t>B3RDF-SF-WH-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELEDMINI ROUND DL/ADJ TRMD SOLITE FROSTED LENS WHITE</t>
+  </si>
+  <si>
+    <t>RMA16960</t>
+  </si>
+  <si>
+    <t>RMA16959</t>
+  </si>
+  <si>
+    <t>B4RAF-40-SF-WH-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED ROUND TRMD 25-40° TILT ADJ SOLITE FROSTED LENS WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA16958</t>
+  </si>
+  <si>
+    <t>RMA16957</t>
+  </si>
+  <si>
+    <t>RED-3821-11-01-09X1M-UNV-1-D6E</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER 38"x21" ENCLOSURE- 11x DRIVERS, 1 FIXTURE/DRIVER- 9W X1M 120-277V D6E</t>
+  </si>
+  <si>
+    <t>RMA16956</t>
+  </si>
+  <si>
+    <t>B3RWRT-15X3-27KS-W2-RT-120V-D19-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD WW RT 15W CLASSIC 27K 80CRI RT HSG 120V D19</t>
+  </si>
+  <si>
+    <t>B3RDRT-S-WH-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI ROUND DL/ADJ RT SOLITE LENS -WHITE BEVEL-WHITE FLANGE TRIM</t>
+  </si>
+  <si>
+    <t>B3RDRT-15X3-27KS-55-RT-120V-D19-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD DL RT 15W CLASSIC 27K 80CRI 55° BEAM RT HSG 120V D19</t>
+  </si>
+  <si>
+    <t>B3RWRT-D1-WH-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI ROUND WW RT 80 DEG MICRO DIFFUSION -WHITE BEVEL-WHITE FLANGE TRIM</t>
+  </si>
+  <si>
+    <t>RMA16954</t>
+  </si>
+  <si>
+    <t>RMA16953</t>
+  </si>
+  <si>
+    <t>RMA16952</t>
+  </si>
+  <si>
+    <t>RMA16951</t>
+  </si>
+  <si>
+    <t>SP-317-0500-28</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.2 NC HSG 12W 500mA 120V-277V ELDO DMX 0.1%</t>
+  </si>
+  <si>
+    <t>RMA16950</t>
+  </si>
+  <si>
+    <t>RAL-SAMPLE</t>
+  </si>
+  <si>
+    <t>RAL SAMPLE FOR CHIP</t>
+  </si>
+  <si>
+    <t>RMA16948</t>
+  </si>
+  <si>
+    <t>G2-614-SLCB</t>
+  </si>
+  <si>
+    <t>LENS Ø2.25 SIZE N RD F/ MINI UNV HSG TRIMS-SODALIME CLEAR</t>
+  </si>
+  <si>
+    <t>RMA16946</t>
+  </si>
+  <si>
+    <t>SP-318-1050-6F</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.2 NCSM HSG C3 24W 1050mA 120V-277V ELDO 1% LOG DIM</t>
+  </si>
+  <si>
+    <t>RMA16945</t>
+  </si>
+  <si>
+    <t>RMA16944</t>
+  </si>
+  <si>
+    <t>LEM-204-00-3022KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT BEVELED WGD ADJ 30DEG 18W STD CRI 3000-2200K</t>
+  </si>
+  <si>
+    <t>SP-111-0350-3</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED MINI NC HSG WGD1 12W 350mA-120V DIML3-LU</t>
+  </si>
+  <si>
+    <t>A1-520-0-035A</t>
+  </si>
+  <si>
+    <t>CONTROLLER-WARM GLOW MINI/CCD ASM SET: 0 CAP 350mA</t>
+  </si>
+  <si>
+    <t>A1-520-0-050A</t>
+  </si>
+  <si>
+    <t>CONTROLLER-WARM GLOW MINI/CCD ASM SET: 0 CAP 500mA</t>
+  </si>
+  <si>
+    <t>SP-111-0500-3</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED MINI NC HSG WGD1 18W 500mA 120V- DIML3-LU</t>
+  </si>
+  <si>
+    <t>SP-156-0350-3</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED MINI CSD NC1-12W-350mA-120V-277V-DIML3-LU</t>
+  </si>
+  <si>
+    <t>RMA16943</t>
+  </si>
+  <si>
+    <t>E2-644</t>
+  </si>
+  <si>
+    <t>EM BATTERY PACK/DRIVER-CC 7.0W 270mA 30-50V 120-277V 50/60HZ</t>
+  </si>
+  <si>
+    <t>RMA16942</t>
+  </si>
+  <si>
+    <t>RMA16941</t>
+  </si>
+  <si>
+    <t>RMA16940</t>
+  </si>
+  <si>
+    <t>SP-121-1300-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 6" NC1-HSG ADJ/WW-80W 120V-277V-DIML6E-EL</t>
+  </si>
+  <si>
+    <t>LEM-236-00-30KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-6" BEVELED ADJ STD CRI 3000K</t>
+  </si>
+  <si>
+    <t>RMA16939</t>
+  </si>
+  <si>
+    <t>RMA16938</t>
+  </si>
+  <si>
+    <t>RMA16937</t>
+  </si>
+  <si>
+    <t>RMA16936</t>
+  </si>
+  <si>
+    <t>RMA16935</t>
+  </si>
+  <si>
+    <t>RMA16934</t>
+  </si>
+  <si>
+    <t>RMA16933</t>
+  </si>
+  <si>
+    <t>RMA16932</t>
+  </si>
+  <si>
+    <t>RMA16931</t>
+  </si>
+  <si>
+    <t>RMA16930</t>
+  </si>
+  <si>
+    <t>RMA16929</t>
+  </si>
+  <si>
+    <t>RMA16928</t>
+  </si>
+  <si>
+    <t>RMA16927</t>
+  </si>
+  <si>
+    <t>RMA16926</t>
+  </si>
+  <si>
+    <t>SP-241-0350-2</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-BEVELED BLOCK 9W 350mA 120V-277V DIML2</t>
+  </si>
+  <si>
+    <t>RMA16925</t>
+  </si>
+  <si>
+    <t>RMA16924</t>
+  </si>
+  <si>
+    <t>RMA16922</t>
+  </si>
+  <si>
+    <t>RMA16920</t>
+  </si>
+  <si>
+    <t>SP-092-0500-10</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-NANO LED NXT PENDANT 20W-500mA-120V-DIML10-TR</t>
+  </si>
+  <si>
+    <t>RMA16919</t>
+  </si>
+  <si>
+    <t>SP-317-0500-6E-EM</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.2 NC HSG 12W 500mA 120V-277V-ELDO 1% LIN DIM EM</t>
+  </si>
+  <si>
+    <t>RMA16918</t>
+  </si>
+  <si>
+    <t>RMA16917</t>
+  </si>
+  <si>
+    <t>RMA16916</t>
+  </si>
+  <si>
+    <t>SP-519-0350-4</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT - BEVELED 2.2 CYLINDER CS1 16W 350mA 120-277V D4</t>
+  </si>
+  <si>
+    <t>RMA16915</t>
+  </si>
+  <si>
+    <t>RMA16914</t>
+  </si>
+  <si>
+    <t>RPB-01-15WG2-UNV-D6E</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER MINI/NANO-1 FIXTURE MAX-15W WG2 350mA 120-277V D6E</t>
+  </si>
+  <si>
+    <t>RMA16913</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3728,19 +4557,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F3EE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFE7DE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA9A9A9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA9A9A9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA9A9A9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA9A9A9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA9A9A9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA9A9A9"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -3749,8 +4620,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4047,11 +4933,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F652"/>
+  <dimension ref="A1:F812"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F652" sqref="F652"/>
+      <pane ySplit="1" topLeftCell="A647" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A653" sqref="A653:F812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17096,6 +17982,3206 @@
         <v>1230</v>
       </c>
     </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C653" s="2">
+        <v>1</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F653" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A654" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B654" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C654" s="5">
+        <v>1</v>
+      </c>
+      <c r="D654" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E654" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F654" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A655" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B655" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C655" s="5">
+        <v>1</v>
+      </c>
+      <c r="D655" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E655" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F655" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A656" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B656" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C656" s="5">
+        <v>2</v>
+      </c>
+      <c r="D656" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E656" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F656" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A657" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B657" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C657" s="5">
+        <v>1</v>
+      </c>
+      <c r="D657" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E657" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F657" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A658" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B658" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C658" s="5">
+        <v>1</v>
+      </c>
+      <c r="D658" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E658" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F658" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A659" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B659" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C659" s="5">
+        <v>3</v>
+      </c>
+      <c r="D659" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E659" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F659" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A660" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B660" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C660" s="5">
+        <v>3</v>
+      </c>
+      <c r="D660" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E660" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F660" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A661" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B661" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C661" s="5">
+        <v>1</v>
+      </c>
+      <c r="D661" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E661" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F661" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A662" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B662" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C662" s="5">
+        <v>1</v>
+      </c>
+      <c r="D662" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E662" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F662" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A663" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B663" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C663" s="5">
+        <v>1</v>
+      </c>
+      <c r="D663" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E663" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F663" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A664" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B664" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C664" s="5">
+        <v>2</v>
+      </c>
+      <c r="D664" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E664" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F664" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A665" s="4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B665" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C665" s="5">
+        <v>2</v>
+      </c>
+      <c r="D665" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E665" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F665" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A666" s="4" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B666" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C666" s="5">
+        <v>1</v>
+      </c>
+      <c r="D666" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E666" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F666" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A667" s="4" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B667" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C667" s="5">
+        <v>7</v>
+      </c>
+      <c r="D667" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E667" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F667" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A668" s="4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B668" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C668" s="5">
+        <v>1</v>
+      </c>
+      <c r="D668" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="E668" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F668" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A669" s="4" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B669" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C669" s="5">
+        <v>1</v>
+      </c>
+      <c r="D669" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E669" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F669" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A670" s="4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B670" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C670" s="5">
+        <v>4</v>
+      </c>
+      <c r="D670" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E670" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F670" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A671" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B671" s="4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C671" s="5">
+        <v>5</v>
+      </c>
+      <c r="D671" s="4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E671" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F671" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A672" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B672" s="4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C672" s="5">
+        <v>5</v>
+      </c>
+      <c r="D672" s="4" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E672" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F672" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A673" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B673" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C673" s="5">
+        <v>16</v>
+      </c>
+      <c r="D673" s="4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E673" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F673" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A674" s="4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B674" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C674" s="5">
+        <v>5</v>
+      </c>
+      <c r="D674" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E674" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F674" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A675" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B675" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C675" s="5">
+        <v>1</v>
+      </c>
+      <c r="D675" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E675" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F675" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A676" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B676" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C676" s="5">
+        <v>2</v>
+      </c>
+      <c r="D676" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="E676" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F676" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A677" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B677" s="4" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C677" s="5">
+        <v>2</v>
+      </c>
+      <c r="D677" s="4" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E677" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F677" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A678" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B678" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C678" s="5">
+        <v>2</v>
+      </c>
+      <c r="D678" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E678" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F678" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A679" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B679" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C679" s="5">
+        <v>1</v>
+      </c>
+      <c r="D679" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E679" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F679" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A680" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B680" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C680" s="5">
+        <v>1</v>
+      </c>
+      <c r="D680" s="4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E680" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F680" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A681" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B681" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C681" s="5">
+        <v>1</v>
+      </c>
+      <c r="D681" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="E681" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F681" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A682" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B682" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C682" s="5">
+        <v>4</v>
+      </c>
+      <c r="D682" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E682" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F682" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A683" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B683" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C683" s="5">
+        <v>1</v>
+      </c>
+      <c r="D683" s="4" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E683" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F683" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A684" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B684" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C684" s="5">
+        <v>1</v>
+      </c>
+      <c r="D684" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E684" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F684" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A685" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B685" s="4" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C685" s="5">
+        <v>1</v>
+      </c>
+      <c r="D685" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E685" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F685" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A686" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B686" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C686" s="5">
+        <v>4</v>
+      </c>
+      <c r="D686" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E686" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F686" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A687" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B687" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C687" s="5">
+        <v>4</v>
+      </c>
+      <c r="D687" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E687" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F687" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A688" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B688" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C688" s="5">
+        <v>10</v>
+      </c>
+      <c r="D688" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E688" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F688" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A689" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B689" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C689" s="5">
+        <v>12</v>
+      </c>
+      <c r="D689" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E689" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F689" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A690" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B690" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C690" s="5">
+        <v>3</v>
+      </c>
+      <c r="D690" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E690" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F690" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A691" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B691" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C691" s="5">
+        <v>1</v>
+      </c>
+      <c r="D691" s="4" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E691" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F691" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A692" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B692" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C692" s="5">
+        <v>1</v>
+      </c>
+      <c r="D692" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E692" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F692" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A693" s="4" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B693" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="C693" s="5">
+        <v>1</v>
+      </c>
+      <c r="D693" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="E693" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F693" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A694" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B694" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C694" s="5">
+        <v>1</v>
+      </c>
+      <c r="D694" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E694" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F694" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A695" s="4" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B695" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C695" s="5">
+        <v>2</v>
+      </c>
+      <c r="D695" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E695" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F695" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A696" s="4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B696" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C696" s="5">
+        <v>1</v>
+      </c>
+      <c r="D696" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E696" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F696" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A697" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B697" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C697" s="5">
+        <v>1</v>
+      </c>
+      <c r="D697" s="4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E697" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F697" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A698" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B698" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C698" s="5">
+        <v>1</v>
+      </c>
+      <c r="D698" s="4" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E698" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F698" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A699" s="4" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B699" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C699" s="5">
+        <v>1</v>
+      </c>
+      <c r="D699" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E699" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F699" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A700" s="4" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B700" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C700" s="5">
+        <v>1</v>
+      </c>
+      <c r="D700" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E700" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F700" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A701" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C701" s="5">
+        <v>1</v>
+      </c>
+      <c r="D701" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E701" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F701" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A702" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B702" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C702" s="5">
+        <v>1</v>
+      </c>
+      <c r="D702" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E702" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F702" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A703" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B703" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C703" s="5">
+        <v>15</v>
+      </c>
+      <c r="D703" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E703" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F703" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A704" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B704" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C704" s="5">
+        <v>5</v>
+      </c>
+      <c r="D704" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E704" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F704" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A705" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B705" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C705" s="5">
+        <v>14</v>
+      </c>
+      <c r="D705" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E705" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F705" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A706" s="4" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B706" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C706" s="5">
+        <v>2</v>
+      </c>
+      <c r="D706" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E706" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F706" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A707" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B707" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="C707" s="5">
+        <v>1</v>
+      </c>
+      <c r="D707" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="E707" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F707" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A708" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B708" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C708" s="5">
+        <v>71</v>
+      </c>
+      <c r="D708" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E708" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F708" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A709" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C709" s="5">
+        <v>1</v>
+      </c>
+      <c r="D709" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E709" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F709" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A710" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B710" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C710" s="5">
+        <v>5</v>
+      </c>
+      <c r="D710" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E710" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F710" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A711" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B711" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C711" s="5">
+        <v>1</v>
+      </c>
+      <c r="D711" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E711" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F711" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A712" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B712" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C712" s="5">
+        <v>1</v>
+      </c>
+      <c r="D712" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E712" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F712" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A713" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B713" s="4" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C713" s="5">
+        <v>42</v>
+      </c>
+      <c r="D713" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E713" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F713" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A714" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B714" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C714" s="5">
+        <v>7</v>
+      </c>
+      <c r="D714" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E714" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F714" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A715" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B715" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C715" s="5">
+        <v>16</v>
+      </c>
+      <c r="D715" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="E715" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F715" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A716" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B716" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C716" s="5">
+        <v>2</v>
+      </c>
+      <c r="D716" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E716" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F716" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A717" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B717" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C717" s="5">
+        <v>3</v>
+      </c>
+      <c r="D717" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E717" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F717" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A718" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B718" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C718" s="5">
+        <v>3</v>
+      </c>
+      <c r="D718" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E718" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F718" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A719" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B719" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C719" s="5">
+        <v>2</v>
+      </c>
+      <c r="D719" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E719" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F719" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A720" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B720" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C720" s="5">
+        <v>4</v>
+      </c>
+      <c r="D720" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E720" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F720" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A721" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B721" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C721" s="5">
+        <v>1</v>
+      </c>
+      <c r="D721" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E721" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F721" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A722" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B722" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C722" s="5">
+        <v>9</v>
+      </c>
+      <c r="D722" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E722" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F722" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A723" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B723" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C723" s="5">
+        <v>1</v>
+      </c>
+      <c r="D723" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E723" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F723" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A724" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B724" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C724" s="5">
+        <v>16</v>
+      </c>
+      <c r="D724" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="E724" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F724" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A725" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B725" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C725" s="5">
+        <v>1</v>
+      </c>
+      <c r="D725" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E725" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F725" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A726" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B726" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C726" s="5">
+        <v>1</v>
+      </c>
+      <c r="D726" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E726" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F726" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A727" s="4" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B727" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C727" s="5">
+        <v>1</v>
+      </c>
+      <c r="D727" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E727" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F727" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A728" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B728" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C728" s="5">
+        <v>2</v>
+      </c>
+      <c r="D728" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E728" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F728" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A729" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B729" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C729" s="5">
+        <v>1</v>
+      </c>
+      <c r="D729" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="E729" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F729" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A730" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B730" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C730" s="5">
+        <v>3</v>
+      </c>
+      <c r="D730" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E730" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F730" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A731" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B731" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C731" s="5">
+        <v>1</v>
+      </c>
+      <c r="D731" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E731" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F731" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A732" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B732" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C732" s="5">
+        <v>2</v>
+      </c>
+      <c r="D732" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E732" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F732" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A733" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B733" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C733" s="5">
+        <v>13</v>
+      </c>
+      <c r="D733" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E733" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F733" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A734" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B734" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C734" s="5">
+        <v>13</v>
+      </c>
+      <c r="D734" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E734" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F734" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A735" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B735" s="4" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C735" s="5">
+        <v>2</v>
+      </c>
+      <c r="D735" s="4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E735" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F735" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A736" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B736" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C736" s="5">
+        <v>30</v>
+      </c>
+      <c r="D736" s="4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E736" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F736" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A737" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B737" s="4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C737" s="5">
+        <v>15</v>
+      </c>
+      <c r="D737" s="4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E737" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F737" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A738" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B738" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C738" s="5">
+        <v>30</v>
+      </c>
+      <c r="D738" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E738" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F738" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A739" s="4" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B739" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C739" s="5">
+        <v>1</v>
+      </c>
+      <c r="D739" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="E739" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F739" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A740" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B740" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C740" s="5">
+        <v>3</v>
+      </c>
+      <c r="D740" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E740" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F740" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A741" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B741" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C741" s="5">
+        <v>1</v>
+      </c>
+      <c r="D741" s="4" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E741" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F741" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A742" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B742" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C742" s="5">
+        <v>1</v>
+      </c>
+      <c r="D742" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E742" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F742" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A743" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B743" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C743" s="5">
+        <v>1</v>
+      </c>
+      <c r="D743" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E743" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F743" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A744" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B744" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C744" s="5">
+        <v>12</v>
+      </c>
+      <c r="D744" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E744" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F744" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A745" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B745" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C745" s="5">
+        <v>12</v>
+      </c>
+      <c r="D745" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E745" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F745" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A746" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B746" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C746" s="5">
+        <v>8</v>
+      </c>
+      <c r="D746" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="E746" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="F746" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A747" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B747" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C747" s="5">
+        <v>3</v>
+      </c>
+      <c r="D747" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E747" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F747" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A748" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B748" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C748" s="5">
+        <v>3</v>
+      </c>
+      <c r="D748" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="E748" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F748" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A749" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B749" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C749" s="5">
+        <v>13</v>
+      </c>
+      <c r="D749" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E749" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F749" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A750" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B750" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C750" s="5">
+        <v>3</v>
+      </c>
+      <c r="D750" s="4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E750" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F750" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A751" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B751" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C751" s="5">
+        <v>3</v>
+      </c>
+      <c r="D751" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E751" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F751" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A752" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B752" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C752" s="5">
+        <v>13</v>
+      </c>
+      <c r="D752" s="4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E752" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F752" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A753" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B753" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C753" s="5">
+        <v>15</v>
+      </c>
+      <c r="D753" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E753" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F753" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A754" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B754" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C754" s="5">
+        <v>40</v>
+      </c>
+      <c r="D754" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E754" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F754" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A755" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B755" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C755" s="5">
+        <v>1</v>
+      </c>
+      <c r="D755" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E755" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="F755" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A756" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B756" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C756" s="5">
+        <v>3</v>
+      </c>
+      <c r="D756" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E756" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F756" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A757" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B757" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C757" s="5">
+        <v>57</v>
+      </c>
+      <c r="D757" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E757" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="F757" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A758" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B758" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="C758" s="5">
+        <v>11</v>
+      </c>
+      <c r="D758" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="E758" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F758" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A759" s="4" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B759" s="4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C759" s="5">
+        <v>10</v>
+      </c>
+      <c r="D759" s="4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E759" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F759" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A760" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B760" s="4" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C760" s="5">
+        <v>13</v>
+      </c>
+      <c r="D760" s="4" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E760" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F760" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A761" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B761" s="4" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C761" s="5">
+        <v>3</v>
+      </c>
+      <c r="D761" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E761" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F761" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A762" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B762" s="4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C762" s="5">
+        <v>3</v>
+      </c>
+      <c r="D762" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E762" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F762" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A763" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B763" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C763" s="5">
+        <v>13</v>
+      </c>
+      <c r="D763" s="4" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E763" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F763" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A764" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B764" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="C764" s="5">
+        <v>239</v>
+      </c>
+      <c r="D764" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E764" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F764" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A765" s="4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B765" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C765" s="5">
+        <v>1</v>
+      </c>
+      <c r="D765" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E765" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F765" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A766" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B766" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C766" s="5">
+        <v>18</v>
+      </c>
+      <c r="D766" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E766" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F766" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A767" s="4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B767" s="4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C767" s="5">
+        <v>1</v>
+      </c>
+      <c r="D767" s="4" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E767" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F767" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A768" s="4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B768" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C768" s="5">
+        <v>1</v>
+      </c>
+      <c r="D768" s="4" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E768" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F768" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A769" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B769" s="4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C769" s="5">
+        <v>10</v>
+      </c>
+      <c r="D769" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E769" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F769" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A770" s="4" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B770" s="4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C770" s="5">
+        <v>5</v>
+      </c>
+      <c r="D770" s="4" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E770" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F770" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A771" s="4" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B771" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C771" s="5">
+        <v>5</v>
+      </c>
+      <c r="D771" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E771" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F771" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A772" s="4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B772" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C772" s="5">
+        <v>3</v>
+      </c>
+      <c r="D772" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E772" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F772" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A773" s="4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B773" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C773" s="5">
+        <v>10</v>
+      </c>
+      <c r="D773" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E773" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F773" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A774" s="4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B774" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C774" s="5">
+        <v>5</v>
+      </c>
+      <c r="D774" s="4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E774" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F774" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A775" s="4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B775" s="4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C775" s="5">
+        <v>7</v>
+      </c>
+      <c r="D775" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E775" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F775" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A776" s="4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B776" s="4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C776" s="5">
+        <v>7</v>
+      </c>
+      <c r="D776" s="4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E776" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F776" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A777" s="4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B777" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C777" s="5">
+        <v>5</v>
+      </c>
+      <c r="D777" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E777" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F777" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A778" s="4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B778" s="4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C778" s="5">
+        <v>5</v>
+      </c>
+      <c r="D778" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E778" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F778" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A779" s="4" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B779" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C779" s="5">
+        <v>15</v>
+      </c>
+      <c r="D779" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E779" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F779" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A780" s="4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B780" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C780" s="5">
+        <v>4</v>
+      </c>
+      <c r="D780" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E780" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F780" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A781" s="4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B781" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C781" s="5">
+        <v>4</v>
+      </c>
+      <c r="D781" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="E781" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F781" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A782" s="4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B782" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C782" s="5">
+        <v>3</v>
+      </c>
+      <c r="D782" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E782" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F782" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A783" s="4" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B783" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C783" s="5">
+        <v>4</v>
+      </c>
+      <c r="D783" s="4" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E783" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F783" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A784" s="4" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B784" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C784" s="5">
+        <v>5</v>
+      </c>
+      <c r="D784" s="4" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E784" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F784" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A785" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B785" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C785" s="5">
+        <v>5</v>
+      </c>
+      <c r="D785" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E785" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F785" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A786" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B786" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C786" s="5">
+        <v>1</v>
+      </c>
+      <c r="D786" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E786" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F786" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A787" s="4" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B787" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C787" s="5">
+        <v>1</v>
+      </c>
+      <c r="D787" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="E787" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F787" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A788" s="4" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B788" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C788" s="5">
+        <v>6</v>
+      </c>
+      <c r="D788" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E788" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F788" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A789" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B789" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="C789" s="5">
+        <v>10</v>
+      </c>
+      <c r="D789" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="E789" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F789" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A790" s="4" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B790" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C790" s="5">
+        <v>1</v>
+      </c>
+      <c r="D790" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E790" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F790" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A791" s="4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B791" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C791" s="5">
+        <v>2</v>
+      </c>
+      <c r="D791" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="E791" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F791" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A792" s="4" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B792" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C792" s="5">
+        <v>1</v>
+      </c>
+      <c r="D792" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E792" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F792" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A793" s="4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B793" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C793" s="5">
+        <v>3</v>
+      </c>
+      <c r="D793" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E793" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F793" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A794" s="4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B794" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C794" s="5">
+        <v>2</v>
+      </c>
+      <c r="D794" s="4" t="s">
+        <v>735</v>
+      </c>
+      <c r="E794" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F794" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A795" s="4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B795" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="C795" s="5">
+        <v>1</v>
+      </c>
+      <c r="D795" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E795" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F795" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A796" s="4" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B796" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C796" s="5">
+        <v>1</v>
+      </c>
+      <c r="D796" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E796" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F796" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A797" s="4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B797" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C797" s="5">
+        <v>1</v>
+      </c>
+      <c r="D797" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E797" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F797" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A798" s="4" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B798" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C798" s="5">
+        <v>2</v>
+      </c>
+      <c r="D798" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E798" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F798" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A799" s="4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B799" s="4" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C799" s="5">
+        <v>338</v>
+      </c>
+      <c r="D799" s="4" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E799" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F799" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A800" s="4" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B800" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C800" s="5">
+        <v>1</v>
+      </c>
+      <c r="D800" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E800" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F800" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A801" s="4" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B801" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C801" s="5">
+        <v>1</v>
+      </c>
+      <c r="D801" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E801" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F801" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A802" s="4" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B802" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C802" s="5">
+        <v>2</v>
+      </c>
+      <c r="D802" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E802" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F802" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A803" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B803" s="4" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C803" s="5">
+        <v>3</v>
+      </c>
+      <c r="D803" s="4" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E803" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F803" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A804" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B804" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C804" s="5">
+        <v>3</v>
+      </c>
+      <c r="D804" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E804" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F804" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A805" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B805" s="4" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C805" s="5">
+        <v>4</v>
+      </c>
+      <c r="D805" s="4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E805" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F805" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A806" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B806" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C806" s="5">
+        <v>4</v>
+      </c>
+      <c r="D806" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E806" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F806" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A807" s="4" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B807" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C807" s="5">
+        <v>13</v>
+      </c>
+      <c r="D807" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E807" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F807" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A808" s="4" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B808" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C808" s="5">
+        <v>1</v>
+      </c>
+      <c r="D808" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E808" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F808" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A809" s="4" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B809" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C809" s="5">
+        <v>1</v>
+      </c>
+      <c r="D809" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E809" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F809" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A810" s="4" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B810" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C810" s="5">
+        <v>5</v>
+      </c>
+      <c r="D810" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E810" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F810" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A811" s="4" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B811" s="4" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C811" s="5">
+        <v>3</v>
+      </c>
+      <c r="D811" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E811" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F811" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A812" s="4" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B812" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C812" s="5">
+        <v>1</v>
+      </c>
+      <c r="D812" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E812" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F812" s="3" t="s">
+        <v>1234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Code/Failure_rate/2022/YTD_2022.xlsx
+++ b/Code/Failure_rate/2022/YTD_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\project_files\USAI\Code\Failure_rate\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0B4D0A-E64A-43FC-8178-E2C7CF057085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A4CBCC-2C67-4625-BC5F-5FAE18011665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="16635" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="23400" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4060" uniqueCount="1507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4875" uniqueCount="1741">
   <si>
     <t>RMA ID</t>
   </si>
@@ -4543,6 +4543,708 @@
   </si>
   <si>
     <t>RMA16913</t>
+  </si>
+  <si>
+    <t>RMA17049</t>
+  </si>
+  <si>
+    <t>B4SDF-24C3-27KS-M-NC-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 GLOW SQ DL TRMD 24W CLASSIC 27K 80CRI MEDIUM BEAM NC HSG 120-277V ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>RMA17073</t>
+  </si>
+  <si>
+    <t>RMA17057</t>
+  </si>
+  <si>
+    <t>CBRA10-16C3-35KS-35-S-WH-PR2-UNV-D6A</t>
+  </si>
+  <si>
+    <t>2.2 CYLINDER RD ADJ 16W CW 3500KS 35° BEAM-SOLITE LENS-WHITE-PR MOUNT 48" 120-277V D6A</t>
+  </si>
+  <si>
+    <t>RMA17070</t>
+  </si>
+  <si>
+    <t>RMA17110</t>
+  </si>
+  <si>
+    <t>SP-092-0500-2</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-NANO LED NXT PENDANT 20W 500mA-120V-277V-DIML2-TR</t>
+  </si>
+  <si>
+    <t>RMA17058</t>
+  </si>
+  <si>
+    <t>RMA17081</t>
+  </si>
+  <si>
+    <t>B3SDF-20X3-30KS-40-NC1-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL TRMD 20W CLASSIC 30K 80CRI 40° BEAM NC1 HSG 120-277V D6E ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>RMA17056</t>
+  </si>
+  <si>
+    <t>RMA17129</t>
+  </si>
+  <si>
+    <t>RMA17115</t>
+  </si>
+  <si>
+    <t>RMA17119</t>
+  </si>
+  <si>
+    <t>SP-121-1000-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 6" NC1-HSG ADJ/WW-60W 120V-277V-DIML6E-EL</t>
+  </si>
+  <si>
+    <t>RMA17144</t>
+  </si>
+  <si>
+    <t>M1SDL-09X1M-35KS-35-M0-WH-NC-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO SQ DL TRML 9W 3500K 80 CRI 35° BEAM MICRO DIF LENS WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA17033</t>
+  </si>
+  <si>
+    <t>RMA17135</t>
+  </si>
+  <si>
+    <t>RMA17139</t>
+  </si>
+  <si>
+    <t>RMA17082</t>
+  </si>
+  <si>
+    <t>B4SDRT-32WG2-2722KS-90-WH-RT-UNV-D6A-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 SQ TRMD DL 32W WARM GLO 2700-2200K 80CRI 90° BEAM RETROFIT WHITE HSG 120-277V ELDO 0-10V</t>
+  </si>
+  <si>
+    <t>RMA17053</t>
+  </si>
+  <si>
+    <t>RMA17145</t>
+  </si>
+  <si>
+    <t>SP-234-0700-D6A</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT SLIVERLED 700mA-D6A WGD</t>
+  </si>
+  <si>
+    <t>RMA17054</t>
+  </si>
+  <si>
+    <t>B3SAL-25-S-WH-NT-TRM-MOD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEVELED MINI SQ DL/ADJ TRML 0°-40° TILT SOLITE LENS -WHITE BEVEL NATATORIUM TRIM MOD=NAT F/CUSTOM </t>
+  </si>
+  <si>
+    <t>LEM-281-00-3022KH</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT SLIVERLED WGD HI CRI 3000-2200K</t>
+  </si>
+  <si>
+    <t>B3SAM-25-S-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL/ADJ TRML 0°-40° TILT SOLITE LENS -WHITE BEVEL</t>
+  </si>
+  <si>
+    <t>RMA17048</t>
+  </si>
+  <si>
+    <t>B3SDM-S-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELEDMINI SQ DL/ADJ MILLWORK SOLITE LENS WHITE</t>
+  </si>
+  <si>
+    <t>B3SAM-25-S-1128-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL/ADJ TRML 0°-40° TILT SOLITE LENS-RALRAL7044 49/75480 BEVEL TRIM</t>
+  </si>
+  <si>
+    <t>RMA17104</t>
+  </si>
+  <si>
+    <t>RMA17122</t>
+  </si>
+  <si>
+    <t>RMA17120</t>
+  </si>
+  <si>
+    <t>B3RWL-D1-SC-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI ROUND WW TRML 80 DEG MICRO DIFFUSION -CONDUIT SILVER BEVEL</t>
+  </si>
+  <si>
+    <t>RMA17125</t>
+  </si>
+  <si>
+    <t>B4RDF-33C3-40KS-90-NCSM-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 RD DL TRMD 33W CLASSIC 40K 80CRI 90° BEAM NCSM HSG 120-277V ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>RMA17134</t>
+  </si>
+  <si>
+    <t>B3SCM-09X3-35KS-50-BL-NC1-SB-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ COMFORT MILLWORK BL 09W CLASSIC 35K 80CRI 50° BEAM NC1 HSG 120-277V D6E STD GRID BKT</t>
+  </si>
+  <si>
+    <t>RMA17101</t>
+  </si>
+  <si>
+    <t>RMA17091</t>
+  </si>
+  <si>
+    <t>RMA17102</t>
+  </si>
+  <si>
+    <t>RMA17038</t>
+  </si>
+  <si>
+    <t>RMA17117</t>
+  </si>
+  <si>
+    <t>SP-416-0700-4H</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT- BEVELED 2.2 CYLINDER 16W 700mA 120-277V D4H</t>
+  </si>
+  <si>
+    <t>RMA17114</t>
+  </si>
+  <si>
+    <t>RMA17061</t>
+  </si>
+  <si>
+    <t>RMA17083</t>
+  </si>
+  <si>
+    <t>RMA17034</t>
+  </si>
+  <si>
+    <t>SP-464-0350-6E-EML</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-MINI BASIC-9W 350mA NC1/NCIC/NCCP HSG DIML6E EML</t>
+  </si>
+  <si>
+    <t>RMA17089</t>
+  </si>
+  <si>
+    <t>MWL06-21H1-30KH-WH-TRM</t>
+  </si>
+  <si>
+    <t>MICRO WALL WASH TRIMLESS 6 CELL 21W 3000KH WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA17052</t>
+  </si>
+  <si>
+    <t>M1RDF-07X4C-27KH-50-M0-WH-WH-RT-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO RD DL TRMD 7W 2700K 90 CRI 50° BEAM MICRO DIF LENS WHITE WHITE TRIM</t>
+  </si>
+  <si>
+    <t>M1RAF-07X4C-27KH-35-M0-WH-WH-RT-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO RD ADJ TRMD 7W 2700K 90 CRI 35° BEAM MICRO DIF LENS WHITE WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA17050</t>
+  </si>
+  <si>
+    <t>SP-322-0500-2</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT DRIVER-REPLACEMENT MINI X1/X3/WG2/CS1 NC1/NCIC/NCCP-0500mA 120V-277V DIML2-TR</t>
+  </si>
+  <si>
+    <t>RMA17111</t>
+  </si>
+  <si>
+    <t>B4SGF-30-S-WH-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED SQ DL TRMD 30° SLOPED SOLITE CLEAR LENS WHITE BEVEL WHITE FLANGE</t>
+  </si>
+  <si>
+    <t>RMA17108</t>
+  </si>
+  <si>
+    <t>MDG08-27H1-NCVS-UNV-D4H-GL99-HSG</t>
+  </si>
+  <si>
+    <t>MICRO DL FOR WOODWORKS 8 CELL 27W NCVS UNV LUTRON H ECO 1% FADE GL99 HSG</t>
+  </si>
+  <si>
+    <t>RMA17071</t>
+  </si>
+  <si>
+    <t>SP-525-0250-21</t>
+  </si>
+  <si>
+    <t>DRIVER - REPLACEMENT MINI PRIMARY RT 250mA DIML21</t>
+  </si>
+  <si>
+    <t>RMA17085</t>
+  </si>
+  <si>
+    <t>SP-143-1400-3</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-BEVELED 2.1 RT 33W-1400ma-120V-DIML3-LU</t>
+  </si>
+  <si>
+    <t>RMA17116</t>
+  </si>
+  <si>
+    <t>B3RDL-15X3-27KH-55-NC1-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD DL TRML 15W CLASSIC 27K 90CRI 55° BEAM NC1 HSG 120-277V D6E</t>
+  </si>
+  <si>
+    <t>RMA17132</t>
+  </si>
+  <si>
+    <t>RMA17047</t>
+  </si>
+  <si>
+    <t>RMA17103</t>
+  </si>
+  <si>
+    <t>RMA17098</t>
+  </si>
+  <si>
+    <t>RPA-01-21H1-UNV-D6E</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER MICRO-1 FIXTURE MAX-21W H1 700mA 120-277V D6E</t>
+  </si>
+  <si>
+    <t>RMA17107</t>
+  </si>
+  <si>
+    <t>SP-241-0700-6F</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-BEVELED BLOCK 16W 700mA 120V-277V DIML6F</t>
+  </si>
+  <si>
+    <t>RMA17062</t>
+  </si>
+  <si>
+    <t>RMA17059</t>
+  </si>
+  <si>
+    <t>RMA17035</t>
+  </si>
+  <si>
+    <t>LEM-402-A1-27H</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-ZEPTO 9V, 90+CRI 2700K</t>
+  </si>
+  <si>
+    <t>RMA17149</t>
+  </si>
+  <si>
+    <t>SP-529-0500-7T</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED CYL ADJ ROUND 18CSI 500mA 120V-277V DIML7T-EL</t>
+  </si>
+  <si>
+    <t>RMA17066</t>
+  </si>
+  <si>
+    <t>RMA17079</t>
+  </si>
+  <si>
+    <t>RMA17141</t>
+  </si>
+  <si>
+    <t>RMA17121</t>
+  </si>
+  <si>
+    <t>RMA17074</t>
+  </si>
+  <si>
+    <t>E2-143</t>
+  </si>
+  <si>
+    <t>75W-120V 12V SLIM TOROIDAL</t>
+  </si>
+  <si>
+    <t>RMA17087</t>
+  </si>
+  <si>
+    <t>Z1RDL-15X4C-30KH-45-NC-RM-HSG</t>
+  </si>
+  <si>
+    <t>ZEPTO RD DL TRML 15W CLASSIC 30K 90CRI 45° BEAM NC HSG REMOTE POWER SUPPLY</t>
+  </si>
+  <si>
+    <t>RMA17045</t>
+  </si>
+  <si>
+    <t>P3SDF-09L2-30KH-F-WH-EC-TRM</t>
+  </si>
+  <si>
+    <t>BEVELEDMINI PRIMARY SQUARE DL TRMD 9W L2 30K 90CRI FLOOD WHITE EC TRIM</t>
+  </si>
+  <si>
+    <t>LED-361-S00-6022C</t>
+  </si>
+  <si>
+    <t>LIGHT EINGINE - (12/12) XD16 4PIN COLOR SELECT MINI 80+ CRI, 6000-2200K</t>
+  </si>
+  <si>
+    <t>P3SDF-15L2-30KH-F-WH-EC-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI PRIMARY SQUARE DL TRMD 15W L2 30K 90CRI FLOOD WHITE EC TRIM</t>
+  </si>
+  <si>
+    <t>RMA17037</t>
+  </si>
+  <si>
+    <t>E2-907</t>
+  </si>
+  <si>
+    <t>DRIVER - CC 30W 700mA 2-55V 120-277V 50/60HZ DIM LIN 1% 0-10V PKG B - EL</t>
+  </si>
+  <si>
+    <t>RMA17150</t>
+  </si>
+  <si>
+    <t>RMA17088</t>
+  </si>
+  <si>
+    <t>Z1RDL-15X4C-27KH-45-NC-RM-HSG</t>
+  </si>
+  <si>
+    <t>ZEPTO RD DL TRML 15W CLASSIC 27K 90CRI 45° BEAM NC HSG REMOTE POWER SUPPLY</t>
+  </si>
+  <si>
+    <t>RMA17127</t>
+  </si>
+  <si>
+    <t>RMA17133</t>
+  </si>
+  <si>
+    <t>B3SDF-15X3-30KH-40-NC1-UNV-D22-EM-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL TRMD 15W CLASSIC 30K 90CRI 40° BEAM NC1 HSG 120-277V D22 EM</t>
+  </si>
+  <si>
+    <t>RMA17093</t>
+  </si>
+  <si>
+    <t>RMA17128</t>
+  </si>
+  <si>
+    <t>M1RDF-09X1M-30KS-35-M0-BL-WH-RT-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO RD DL TRMD 9W 3000K 80 CRI 35° BEAM MICRO DIF LENS BLACK WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA17046</t>
+  </si>
+  <si>
+    <t>M1RDF-09X1M-30KS-50-M0-BL-WH-RT-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO RD DL TRMD 9W 3000K 80 CRI 50° BEAM MICRO DIF LENS BLACK WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA17078</t>
+  </si>
+  <si>
+    <t>RMA17131</t>
+  </si>
+  <si>
+    <t>SP-322-0225-6F</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT DRIVER-REPLACEMENT MINI X1/X3/WG2/CS1 NC1/NCIC/NCCP-225mA 120V-277V DIML6F-EL</t>
+  </si>
+  <si>
+    <t>RMA17126</t>
+  </si>
+  <si>
+    <t>RMA17060</t>
+  </si>
+  <si>
+    <t>RMA17077</t>
+  </si>
+  <si>
+    <t>RMA17051</t>
+  </si>
+  <si>
+    <t>RMA17063</t>
+  </si>
+  <si>
+    <t>B3SGL-30-SF-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL TRML 30° SLOPED SOLITE FROSTED LENS WHITE BEVEL</t>
+  </si>
+  <si>
+    <t>B3SGL-15CS2-6022KS-40-NC1-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL TRML 15W CS 6000-2200K 80 CRI 40° BM SLOPED HSG 120-277V ELDO 0-10V 1% LIN</t>
+  </si>
+  <si>
+    <t>B3SGL-20CS2-6022KS-40-NC1-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL TRML 20W CS 6000-2200K 80 CRI 40° BM SLOPED HSG 120-277V ELDO 0-10V 1% LIN</t>
+  </si>
+  <si>
+    <t>RMA17112</t>
+  </si>
+  <si>
+    <t>RMA17041</t>
+  </si>
+  <si>
+    <t>RMA17039</t>
+  </si>
+  <si>
+    <t>BLSD5-16WG2-2722KH-30-S-SC-CC-UNV-D2</t>
+  </si>
+  <si>
+    <t>BEVELED BLOCK SQ 16W WGD2 2700-2200KH 30° DL-SOLITE-CONDUIT SILVER-CONDUIT CUTOUTS 120-277V DIML2</t>
+  </si>
+  <si>
+    <t>RMA17055</t>
+  </si>
+  <si>
+    <t>MPW08-27H1-30KH-WH-WH-PD1-UNV-D6E</t>
+  </si>
+  <si>
+    <t>MICRO PENDANT WW 27W 3000K 90 CRI WHITE-WHITE PD1 MOUNT UNV D6E</t>
+  </si>
+  <si>
+    <t>RMA17080</t>
+  </si>
+  <si>
+    <t>RMA17148</t>
+  </si>
+  <si>
+    <t>RMA17069</t>
+  </si>
+  <si>
+    <t>BLRD5-16C3-40KS-50-S-WH-SJ-UNV-D2</t>
+  </si>
+  <si>
+    <t>BEVELED BLOCK RD 16W 4000KS-50° DL-SOLITE LENS-WHITE-SJ MOUNT 120-277V DIML2</t>
+  </si>
+  <si>
+    <t>RMA17094</t>
+  </si>
+  <si>
+    <t>RMA17140</t>
+  </si>
+  <si>
+    <t>RMA17044</t>
+  </si>
+  <si>
+    <t>CBRC12-32FC1-50-SF-WH-SM-UNV-D23X1-DW</t>
+  </si>
+  <si>
+    <t>2.2 CYL RD CROSS BAFF 32W INFINITE COLOR 50° BEAM-SOLITE FROSTED-WHITE-SM MOUNT 120-277V D23X1</t>
+  </si>
+  <si>
+    <t>RMA17123</t>
+  </si>
+  <si>
+    <t>RMA17118</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-ZEPTO 9V, 90+CRI 3000K</t>
+  </si>
+  <si>
+    <t>RMA17097</t>
+  </si>
+  <si>
+    <t>RMA17072</t>
+  </si>
+  <si>
+    <t>SP-033-0500-6A</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT NANO MTG-2 20W-500mA 120V-277V DIML6A-EL</t>
+  </si>
+  <si>
+    <t>RMA17042</t>
+  </si>
+  <si>
+    <t>RMA17113</t>
+  </si>
+  <si>
+    <t>RMA17130</t>
+  </si>
+  <si>
+    <t>RMA17090</t>
+  </si>
+  <si>
+    <t>SR21-BL-X115-27KH-15-C-WH-TRM</t>
+  </si>
+  <si>
+    <t>SLIVERLED ROUND ADJ  REGRESS BLACK BFFL X115 2700KH-15°DISTRIBUTION-CLEAR LENS-WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA17065</t>
+  </si>
+  <si>
+    <t>RMA17137</t>
+  </si>
+  <si>
+    <t>Z3SAM-20L3-30KH-25-BL-NC1-120V-D19-HSG</t>
+  </si>
+  <si>
+    <t>TRUE ZERO MINI SQ ADJ MILLWORK  20W L3 COB 30K 90CRI 25° BEAM NC1 HSG 120V</t>
+  </si>
+  <si>
+    <t>RMA17109</t>
+  </si>
+  <si>
+    <t>RMA17076</t>
+  </si>
+  <si>
+    <t>RMA17075</t>
+  </si>
+  <si>
+    <t>USAI-3CR-DRIVER-NC-CXXIV15A-00</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT - CORE 3 BEVEL ADJ NC/IC HSG 15W 0-10V</t>
+  </si>
+  <si>
+    <t>RMA17147</t>
+  </si>
+  <si>
+    <t>USAI-4DLD1IC-TW1IV32A-SFK-00</t>
+  </si>
+  <si>
+    <t>RECESS 4.5 SQ DL TRMD 32W COLOR SELECT 60-22K 80CRI 60°BEAM NCIC HSG 120-277V 0-10V 1% DIM</t>
+  </si>
+  <si>
+    <t>RMA17136</t>
+  </si>
+  <si>
+    <t>M1SAF-09X1M-30KS-50-M0-BL-BL-RT-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO SQ ADJ TRMD 9W 3000K 80 CRI 50° BEAM MICRO DIF LENS BLACK BLACK TRIM</t>
+  </si>
+  <si>
+    <t>M1SAM-09X1M-IC-RM-HSG</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO SQ ADJ MLWK 9W IC RM WHITE HSG</t>
+  </si>
+  <si>
+    <t>RMA17084</t>
+  </si>
+  <si>
+    <t>B4SAF-16WG2-3022KH-R40-NCIC-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 T24 SQ ADJ TRMD 16W WARM GLOW 30-22K 90CRI 40° BEAM NCIC HSG 120-277V ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>RMA17095</t>
+  </si>
+  <si>
+    <t>RMA17106</t>
+  </si>
+  <si>
+    <t>B3RAF-15WG2-2722KH-30-FTA-UNV-D6A-HSG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEVELED MINI RD ADJ TRMD 15W WARM GLOW 27-22K 90CRI 30° BEAM FTA HSG 120-277V D6A </t>
+  </si>
+  <si>
+    <t>RMA17068</t>
+  </si>
+  <si>
+    <t>B4RAF-32WG2-2722KH-T10-NC-UNV-D6A-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 RD ADJ TRMD 32W WARM GLOW 27-22K 90CRI 10° BEAM NC HSG 120-277V ELDO 0.1% LIN DIM</t>
+  </si>
+  <si>
+    <t>RMA17096</t>
+  </si>
+  <si>
+    <t>P3SF-09L2-EC-120V-D21-HSG</t>
+  </si>
+  <si>
+    <t>BEVELEDMINI PRIMARY SQUARE TRMD 9W L2 120V D21 EC HSG</t>
+  </si>
+  <si>
+    <t>RMA17143</t>
+  </si>
+  <si>
+    <t>RMA17064</t>
+  </si>
+  <si>
+    <t>B3RWF-18CS1-6022KS-W2-NC1-UNV-D28-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD WW TRMD 18W COLOR SELECT 60-22K 80CRI NC1 HSG 120-277V D28</t>
+  </si>
+  <si>
+    <t>RMA17043</t>
+  </si>
+  <si>
+    <t>RMA17146</t>
+  </si>
+  <si>
+    <t>SP-416-0700-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT- BEVELED 2.2 CYLINDER 16W 700mA 120-277V D6E</t>
+  </si>
+  <si>
+    <t>RMA17138</t>
   </si>
 </sst>
 </file>
@@ -4933,11 +5635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F812"/>
+  <dimension ref="A1:F975"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A647" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A653" sqref="A653:F812"/>
+      <pane ySplit="1" topLeftCell="A968" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L811" sqref="L811"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21182,6 +21884,3266 @@
         <v>1234</v>
       </c>
     </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B813" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C813">
+        <v>1</v>
+      </c>
+      <c r="D813" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E813" t="s">
+        <v>163</v>
+      </c>
+      <c r="F813" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B814" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C814">
+        <v>1</v>
+      </c>
+      <c r="D814" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E814" t="s">
+        <v>127</v>
+      </c>
+      <c r="F814" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B815" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C815">
+        <v>1</v>
+      </c>
+      <c r="D815" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E815" t="s">
+        <v>16</v>
+      </c>
+      <c r="F815" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B816" t="s">
+        <v>688</v>
+      </c>
+      <c r="C816">
+        <v>3</v>
+      </c>
+      <c r="D816" t="s">
+        <v>689</v>
+      </c>
+      <c r="E816" t="s">
+        <v>16</v>
+      </c>
+      <c r="F816" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B817" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C817">
+        <v>5</v>
+      </c>
+      <c r="D817" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E817" t="s">
+        <v>16</v>
+      </c>
+      <c r="F817" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B818" t="s">
+        <v>179</v>
+      </c>
+      <c r="C818">
+        <v>5</v>
+      </c>
+      <c r="D818" t="s">
+        <v>180</v>
+      </c>
+      <c r="E818" t="s">
+        <v>16</v>
+      </c>
+      <c r="F818" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B819" t="s">
+        <v>409</v>
+      </c>
+      <c r="C819">
+        <v>13</v>
+      </c>
+      <c r="D819" t="s">
+        <v>410</v>
+      </c>
+      <c r="E819" t="s">
+        <v>9</v>
+      </c>
+      <c r="F819" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B820" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C820">
+        <v>1</v>
+      </c>
+      <c r="D820" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E820" t="s">
+        <v>163</v>
+      </c>
+      <c r="F820" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B821" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C821">
+        <v>20</v>
+      </c>
+      <c r="D821" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E821" t="s">
+        <v>9</v>
+      </c>
+      <c r="F821" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B822" t="s">
+        <v>224</v>
+      </c>
+      <c r="C822">
+        <v>2</v>
+      </c>
+      <c r="D822" t="s">
+        <v>225</v>
+      </c>
+      <c r="E822" t="s">
+        <v>16</v>
+      </c>
+      <c r="F822" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B823" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C823">
+        <v>1</v>
+      </c>
+      <c r="D823" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E823" t="s">
+        <v>16</v>
+      </c>
+      <c r="F823" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B824" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C824">
+        <v>8</v>
+      </c>
+      <c r="D824" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E824" t="s">
+        <v>9</v>
+      </c>
+      <c r="F824" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B825" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C825">
+        <v>29</v>
+      </c>
+      <c r="D825" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E825" t="s">
+        <v>9</v>
+      </c>
+      <c r="F825" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B826" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C826">
+        <v>28</v>
+      </c>
+      <c r="D826" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E826" t="s">
+        <v>9</v>
+      </c>
+      <c r="F826" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C827">
+        <v>2</v>
+      </c>
+      <c r="D827" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E827" t="s">
+        <v>16</v>
+      </c>
+      <c r="F827" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C828">
+        <v>8</v>
+      </c>
+      <c r="D828" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E828" t="s">
+        <v>9</v>
+      </c>
+      <c r="F828" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B829" t="s">
+        <v>758</v>
+      </c>
+      <c r="C829">
+        <v>1</v>
+      </c>
+      <c r="D829" t="s">
+        <v>759</v>
+      </c>
+      <c r="E829" t="s">
+        <v>127</v>
+      </c>
+      <c r="F829" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B830" t="s">
+        <v>428</v>
+      </c>
+      <c r="C830">
+        <v>1</v>
+      </c>
+      <c r="D830" t="s">
+        <v>429</v>
+      </c>
+      <c r="E830" t="s">
+        <v>16</v>
+      </c>
+      <c r="F830" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C831">
+        <v>23</v>
+      </c>
+      <c r="D831" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E831" t="s">
+        <v>324</v>
+      </c>
+      <c r="F831" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B832" t="s">
+        <v>586</v>
+      </c>
+      <c r="C832">
+        <v>78</v>
+      </c>
+      <c r="D832" t="s">
+        <v>587</v>
+      </c>
+      <c r="E832" t="s">
+        <v>9</v>
+      </c>
+      <c r="F832" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C833">
+        <v>1</v>
+      </c>
+      <c r="D833" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E833" t="s">
+        <v>16</v>
+      </c>
+      <c r="F833" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B834" t="s">
+        <v>586</v>
+      </c>
+      <c r="C834">
+        <v>8</v>
+      </c>
+      <c r="D834" t="s">
+        <v>587</v>
+      </c>
+      <c r="E834" t="s">
+        <v>9</v>
+      </c>
+      <c r="F834" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C835">
+        <v>57</v>
+      </c>
+      <c r="D835" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E835" t="s">
+        <v>9</v>
+      </c>
+      <c r="F835" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B836" t="s">
+        <v>586</v>
+      </c>
+      <c r="C836">
+        <v>12</v>
+      </c>
+      <c r="D836" t="s">
+        <v>587</v>
+      </c>
+      <c r="E836" t="s">
+        <v>9</v>
+      </c>
+      <c r="F836" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C837">
+        <v>1</v>
+      </c>
+      <c r="D837" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E837" t="s">
+        <v>16</v>
+      </c>
+      <c r="F837" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C838">
+        <v>15</v>
+      </c>
+      <c r="D838" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E838" t="s">
+        <v>9</v>
+      </c>
+      <c r="F838" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B839" t="s">
+        <v>317</v>
+      </c>
+      <c r="C839">
+        <v>4</v>
+      </c>
+      <c r="D839" t="s">
+        <v>318</v>
+      </c>
+      <c r="E839" t="s">
+        <v>9</v>
+      </c>
+      <c r="F839" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B840" t="s">
+        <v>313</v>
+      </c>
+      <c r="C840">
+        <v>20</v>
+      </c>
+      <c r="D840" t="s">
+        <v>314</v>
+      </c>
+      <c r="E840" t="s">
+        <v>9</v>
+      </c>
+      <c r="F840" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C841">
+        <v>1</v>
+      </c>
+      <c r="D841" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E841" t="s">
+        <v>9</v>
+      </c>
+      <c r="F841" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C842">
+        <v>76</v>
+      </c>
+      <c r="D842" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E842" t="s">
+        <v>9</v>
+      </c>
+      <c r="F842" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C843">
+        <v>6</v>
+      </c>
+      <c r="D843" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E843" t="s">
+        <v>9</v>
+      </c>
+      <c r="F843" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B844" t="s">
+        <v>319</v>
+      </c>
+      <c r="C844">
+        <v>32</v>
+      </c>
+      <c r="D844" t="s">
+        <v>320</v>
+      </c>
+      <c r="E844" t="s">
+        <v>9</v>
+      </c>
+      <c r="F844" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B845" t="s">
+        <v>311</v>
+      </c>
+      <c r="C845">
+        <v>185</v>
+      </c>
+      <c r="D845" t="s">
+        <v>312</v>
+      </c>
+      <c r="E845" t="s">
+        <v>9</v>
+      </c>
+      <c r="F845" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B846" t="s">
+        <v>586</v>
+      </c>
+      <c r="C846">
+        <v>225</v>
+      </c>
+      <c r="D846" t="s">
+        <v>587</v>
+      </c>
+      <c r="E846" t="s">
+        <v>9</v>
+      </c>
+      <c r="F846" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C847">
+        <v>5</v>
+      </c>
+      <c r="D847" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E847" t="s">
+        <v>9</v>
+      </c>
+      <c r="F847" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B848" t="s">
+        <v>78</v>
+      </c>
+      <c r="C848">
+        <v>28</v>
+      </c>
+      <c r="D848" t="s">
+        <v>79</v>
+      </c>
+      <c r="E848" t="s">
+        <v>9</v>
+      </c>
+      <c r="F848" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B849" t="s">
+        <v>350</v>
+      </c>
+      <c r="C849">
+        <v>30</v>
+      </c>
+      <c r="D849" t="s">
+        <v>351</v>
+      </c>
+      <c r="E849" t="s">
+        <v>127</v>
+      </c>
+      <c r="F849" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C850">
+        <v>2</v>
+      </c>
+      <c r="D850" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E850" t="s">
+        <v>9</v>
+      </c>
+      <c r="F850" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C851">
+        <v>1</v>
+      </c>
+      <c r="D851" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E851" t="s">
+        <v>9</v>
+      </c>
+      <c r="F851" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C852">
+        <v>1</v>
+      </c>
+      <c r="D852" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E852" t="s">
+        <v>163</v>
+      </c>
+      <c r="F852" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B853" t="s">
+        <v>841</v>
+      </c>
+      <c r="C853">
+        <v>1</v>
+      </c>
+      <c r="D853" t="s">
+        <v>842</v>
+      </c>
+      <c r="E853" t="s">
+        <v>16</v>
+      </c>
+      <c r="F853" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B854" t="s">
+        <v>148</v>
+      </c>
+      <c r="C854">
+        <v>1</v>
+      </c>
+      <c r="D854" t="s">
+        <v>149</v>
+      </c>
+      <c r="E854" t="s">
+        <v>9</v>
+      </c>
+      <c r="F854" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B855" t="s">
+        <v>148</v>
+      </c>
+      <c r="C855">
+        <v>1</v>
+      </c>
+      <c r="D855" t="s">
+        <v>149</v>
+      </c>
+      <c r="E855" t="s">
+        <v>9</v>
+      </c>
+      <c r="F855" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C856">
+        <v>1</v>
+      </c>
+      <c r="D856" t="s">
+        <v>282</v>
+      </c>
+      <c r="E856" t="s">
+        <v>16</v>
+      </c>
+      <c r="F856" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B857" t="s">
+        <v>711</v>
+      </c>
+      <c r="C857">
+        <v>20</v>
+      </c>
+      <c r="D857" t="s">
+        <v>712</v>
+      </c>
+      <c r="E857" t="s">
+        <v>16</v>
+      </c>
+      <c r="F857" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C858">
+        <v>1</v>
+      </c>
+      <c r="D858" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E858" t="s">
+        <v>16</v>
+      </c>
+      <c r="F858" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C859">
+        <v>1</v>
+      </c>
+      <c r="D859" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E859" t="s">
+        <v>16</v>
+      </c>
+      <c r="F859" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B860" t="s">
+        <v>167</v>
+      </c>
+      <c r="C860">
+        <v>1</v>
+      </c>
+      <c r="D860" t="s">
+        <v>168</v>
+      </c>
+      <c r="E860" t="s">
+        <v>16</v>
+      </c>
+      <c r="F860" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B861" t="s">
+        <v>78</v>
+      </c>
+      <c r="C861">
+        <v>5</v>
+      </c>
+      <c r="D861" t="s">
+        <v>79</v>
+      </c>
+      <c r="E861" t="s">
+        <v>16</v>
+      </c>
+      <c r="F861" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C862">
+        <v>1</v>
+      </c>
+      <c r="D862" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E862" t="s">
+        <v>16</v>
+      </c>
+      <c r="F862" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C863">
+        <v>6</v>
+      </c>
+      <c r="D863" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E863" t="s">
+        <v>16</v>
+      </c>
+      <c r="F863" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C864">
+        <v>1</v>
+      </c>
+      <c r="D864" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E864" t="s">
+        <v>16</v>
+      </c>
+      <c r="F864" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C865">
+        <v>1</v>
+      </c>
+      <c r="D865" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E865" t="s">
+        <v>16</v>
+      </c>
+      <c r="F865" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C866">
+        <v>1</v>
+      </c>
+      <c r="D866" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E866" t="s">
+        <v>16</v>
+      </c>
+      <c r="F866" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B867" t="s">
+        <v>196</v>
+      </c>
+      <c r="C867">
+        <v>1</v>
+      </c>
+      <c r="D867" t="s">
+        <v>197</v>
+      </c>
+      <c r="E867" t="s">
+        <v>16</v>
+      </c>
+      <c r="F867" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C868">
+        <v>27</v>
+      </c>
+      <c r="D868" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E868" t="s">
+        <v>9</v>
+      </c>
+      <c r="F868" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C869">
+        <v>50</v>
+      </c>
+      <c r="D869" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E869" t="s">
+        <v>324</v>
+      </c>
+      <c r="F869" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C870">
+        <v>1</v>
+      </c>
+      <c r="D870" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E870" t="s">
+        <v>16</v>
+      </c>
+      <c r="F870" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B871" t="s">
+        <v>87</v>
+      </c>
+      <c r="C871">
+        <v>1</v>
+      </c>
+      <c r="D871" t="s">
+        <v>88</v>
+      </c>
+      <c r="E871" t="s">
+        <v>16</v>
+      </c>
+      <c r="F871" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B872" t="s">
+        <v>52</v>
+      </c>
+      <c r="C872">
+        <v>3</v>
+      </c>
+      <c r="D872" t="s">
+        <v>53</v>
+      </c>
+      <c r="E872" t="s">
+        <v>16</v>
+      </c>
+      <c r="F872" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C873">
+        <v>3</v>
+      </c>
+      <c r="D873" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E873" t="s">
+        <v>16</v>
+      </c>
+      <c r="F873" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C874">
+        <v>1</v>
+      </c>
+      <c r="D874" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E874" t="s">
+        <v>9</v>
+      </c>
+      <c r="F874" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B875" t="s">
+        <v>134</v>
+      </c>
+      <c r="C875">
+        <v>1</v>
+      </c>
+      <c r="D875" t="s">
+        <v>135</v>
+      </c>
+      <c r="E875" t="s">
+        <v>16</v>
+      </c>
+      <c r="F875" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B876" t="s">
+        <v>170</v>
+      </c>
+      <c r="C876">
+        <v>5</v>
+      </c>
+      <c r="D876" t="s">
+        <v>171</v>
+      </c>
+      <c r="E876" t="s">
+        <v>16</v>
+      </c>
+      <c r="F876" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B877" t="s">
+        <v>196</v>
+      </c>
+      <c r="C877">
+        <v>2</v>
+      </c>
+      <c r="D877" t="s">
+        <v>197</v>
+      </c>
+      <c r="E877" t="s">
+        <v>9</v>
+      </c>
+      <c r="F877" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1608</v>
+      </c>
+      <c r="C878">
+        <v>1</v>
+      </c>
+      <c r="D878" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E878" t="s">
+        <v>16</v>
+      </c>
+      <c r="F878" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C879">
+        <v>1</v>
+      </c>
+      <c r="D879" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E879" t="s">
+        <v>16</v>
+      </c>
+      <c r="F879" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B880" t="s">
+        <v>116</v>
+      </c>
+      <c r="C880">
+        <v>16</v>
+      </c>
+      <c r="D880" t="s">
+        <v>117</v>
+      </c>
+      <c r="E880" t="s">
+        <v>16</v>
+      </c>
+      <c r="F880" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B881" t="s">
+        <v>35</v>
+      </c>
+      <c r="C881">
+        <v>10</v>
+      </c>
+      <c r="D881" t="s">
+        <v>36</v>
+      </c>
+      <c r="E881" t="s">
+        <v>16</v>
+      </c>
+      <c r="F881" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C882">
+        <v>3</v>
+      </c>
+      <c r="D882" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E882" t="s">
+        <v>16</v>
+      </c>
+      <c r="F882" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C883">
+        <v>3</v>
+      </c>
+      <c r="D883" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E883" t="s">
+        <v>16</v>
+      </c>
+      <c r="F883" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B884" t="s">
+        <v>281</v>
+      </c>
+      <c r="C884">
+        <v>3</v>
+      </c>
+      <c r="D884" t="s">
+        <v>282</v>
+      </c>
+      <c r="E884" t="s">
+        <v>16</v>
+      </c>
+      <c r="F884" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C885">
+        <v>2</v>
+      </c>
+      <c r="D885" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E885" t="s">
+        <v>16</v>
+      </c>
+      <c r="F885" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B886" t="s">
+        <v>300</v>
+      </c>
+      <c r="C886">
+        <v>6</v>
+      </c>
+      <c r="D886" t="s">
+        <v>301</v>
+      </c>
+      <c r="E886" t="s">
+        <v>16</v>
+      </c>
+      <c r="F886" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B887" t="s">
+        <v>281</v>
+      </c>
+      <c r="C887">
+        <v>16</v>
+      </c>
+      <c r="D887" t="s">
+        <v>282</v>
+      </c>
+      <c r="E887" t="s">
+        <v>16</v>
+      </c>
+      <c r="F887" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C888">
+        <v>6</v>
+      </c>
+      <c r="D888" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E888" t="s">
+        <v>16</v>
+      </c>
+      <c r="F888" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C889">
+        <v>1</v>
+      </c>
+      <c r="D889" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E889" t="s">
+        <v>16</v>
+      </c>
+      <c r="F889" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C890">
+        <v>3</v>
+      </c>
+      <c r="D890" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E890" t="s">
+        <v>16</v>
+      </c>
+      <c r="F890" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C891">
+        <v>3</v>
+      </c>
+      <c r="D891" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E891" t="s">
+        <v>16</v>
+      </c>
+      <c r="F891" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B892" t="s">
+        <v>283</v>
+      </c>
+      <c r="C892">
+        <v>6</v>
+      </c>
+      <c r="D892" t="s">
+        <v>284</v>
+      </c>
+      <c r="E892" t="s">
+        <v>16</v>
+      </c>
+      <c r="F892" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B893" t="s">
+        <v>283</v>
+      </c>
+      <c r="C893">
+        <v>27</v>
+      </c>
+      <c r="D893" t="s">
+        <v>284</v>
+      </c>
+      <c r="E893" t="s">
+        <v>16</v>
+      </c>
+      <c r="F893" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C894">
+        <v>3</v>
+      </c>
+      <c r="D894" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E894" t="s">
+        <v>16</v>
+      </c>
+      <c r="F894" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B895" t="s">
+        <v>283</v>
+      </c>
+      <c r="C895">
+        <v>3</v>
+      </c>
+      <c r="D895" t="s">
+        <v>284</v>
+      </c>
+      <c r="E895" t="s">
+        <v>16</v>
+      </c>
+      <c r="F895" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C896">
+        <v>65</v>
+      </c>
+      <c r="D896" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E896" t="s">
+        <v>16</v>
+      </c>
+      <c r="F896" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C897">
+        <v>5</v>
+      </c>
+      <c r="D897" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E897" t="s">
+        <v>16</v>
+      </c>
+      <c r="F897" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B898" t="s">
+        <v>538</v>
+      </c>
+      <c r="C898">
+        <v>2</v>
+      </c>
+      <c r="D898" t="s">
+        <v>539</v>
+      </c>
+      <c r="E898" t="s">
+        <v>16</v>
+      </c>
+      <c r="F898" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B899" t="s">
+        <v>231</v>
+      </c>
+      <c r="C899">
+        <v>12</v>
+      </c>
+      <c r="D899" t="s">
+        <v>232</v>
+      </c>
+      <c r="E899" t="s">
+        <v>16</v>
+      </c>
+      <c r="F899" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B900" t="s">
+        <v>281</v>
+      </c>
+      <c r="C900">
+        <v>6</v>
+      </c>
+      <c r="D900" t="s">
+        <v>282</v>
+      </c>
+      <c r="E900" t="s">
+        <v>16</v>
+      </c>
+      <c r="F900" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B901" t="s">
+        <v>701</v>
+      </c>
+      <c r="C901">
+        <v>12</v>
+      </c>
+      <c r="D901" t="s">
+        <v>702</v>
+      </c>
+      <c r="E901" t="s">
+        <v>16</v>
+      </c>
+      <c r="F901" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1616</v>
+      </c>
+      <c r="C902">
+        <v>2</v>
+      </c>
+      <c r="D902" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E902" t="s">
+        <v>16</v>
+      </c>
+      <c r="F902" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B903" t="s">
+        <v>281</v>
+      </c>
+      <c r="C903">
+        <v>27</v>
+      </c>
+      <c r="D903" t="s">
+        <v>282</v>
+      </c>
+      <c r="E903" t="s">
+        <v>16</v>
+      </c>
+      <c r="F903" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C904">
+        <v>2</v>
+      </c>
+      <c r="D904" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E904" t="s">
+        <v>16</v>
+      </c>
+      <c r="F904" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C905">
+        <v>2</v>
+      </c>
+      <c r="D905" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E905" t="s">
+        <v>16</v>
+      </c>
+      <c r="F905" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C906">
+        <v>1</v>
+      </c>
+      <c r="D906" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E906" t="s">
+        <v>16</v>
+      </c>
+      <c r="F906" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B907" t="s">
+        <v>283</v>
+      </c>
+      <c r="C907">
+        <v>16</v>
+      </c>
+      <c r="D907" t="s">
+        <v>284</v>
+      </c>
+      <c r="E907" t="s">
+        <v>16</v>
+      </c>
+      <c r="F907" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B908" t="s">
+        <v>179</v>
+      </c>
+      <c r="C908">
+        <v>1</v>
+      </c>
+      <c r="D908" t="s">
+        <v>180</v>
+      </c>
+      <c r="E908" t="s">
+        <v>9</v>
+      </c>
+      <c r="F908" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C909">
+        <v>1</v>
+      </c>
+      <c r="D909" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E909" t="s">
+        <v>16</v>
+      </c>
+      <c r="F909" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B910" t="s">
+        <v>137</v>
+      </c>
+      <c r="C910">
+        <v>3</v>
+      </c>
+      <c r="D910" t="s">
+        <v>138</v>
+      </c>
+      <c r="E910" t="s">
+        <v>16</v>
+      </c>
+      <c r="F910" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C911">
+        <v>5</v>
+      </c>
+      <c r="D911" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E911" t="s">
+        <v>16</v>
+      </c>
+      <c r="F911" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C912">
+        <v>7</v>
+      </c>
+      <c r="D912" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E912" t="s">
+        <v>16</v>
+      </c>
+      <c r="F912" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B913" t="s">
+        <v>216</v>
+      </c>
+      <c r="C913">
+        <v>2</v>
+      </c>
+      <c r="D913" t="s">
+        <v>217</v>
+      </c>
+      <c r="E913" t="s">
+        <v>16</v>
+      </c>
+      <c r="F913" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C914">
+        <v>1</v>
+      </c>
+      <c r="D914" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E914" t="s">
+        <v>16</v>
+      </c>
+      <c r="F914" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B915" t="s">
+        <v>681</v>
+      </c>
+      <c r="C915">
+        <v>2</v>
+      </c>
+      <c r="D915" t="s">
+        <v>682</v>
+      </c>
+      <c r="E915" t="s">
+        <v>163</v>
+      </c>
+      <c r="F915" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B916" t="s">
+        <v>78</v>
+      </c>
+      <c r="C916">
+        <v>28</v>
+      </c>
+      <c r="D916" t="s">
+        <v>79</v>
+      </c>
+      <c r="E916" t="s">
+        <v>16</v>
+      </c>
+      <c r="F916" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B917" t="s">
+        <v>804</v>
+      </c>
+      <c r="C917">
+        <v>1</v>
+      </c>
+      <c r="D917" t="s">
+        <v>805</v>
+      </c>
+      <c r="E917" t="s">
+        <v>16</v>
+      </c>
+      <c r="F917" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B918" t="s">
+        <v>919</v>
+      </c>
+      <c r="C918">
+        <v>2</v>
+      </c>
+      <c r="D918" t="s">
+        <v>920</v>
+      </c>
+      <c r="E918" t="s">
+        <v>16</v>
+      </c>
+      <c r="F918" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C919">
+        <v>12</v>
+      </c>
+      <c r="D919" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E919" t="s">
+        <v>324</v>
+      </c>
+      <c r="F919" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C920">
+        <v>8</v>
+      </c>
+      <c r="D920" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E920" t="s">
+        <v>324</v>
+      </c>
+      <c r="F920" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C921">
+        <v>12</v>
+      </c>
+      <c r="D921" t="s">
+        <v>1670</v>
+      </c>
+      <c r="E921" t="s">
+        <v>324</v>
+      </c>
+      <c r="F921" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B922" t="s">
+        <v>176</v>
+      </c>
+      <c r="C922">
+        <v>16</v>
+      </c>
+      <c r="D922" t="s">
+        <v>177</v>
+      </c>
+      <c r="E922" t="s">
+        <v>16</v>
+      </c>
+      <c r="F922" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C923">
+        <v>8</v>
+      </c>
+      <c r="D923" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E923" t="s">
+        <v>324</v>
+      </c>
+      <c r="F923" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B924" t="s">
+        <v>122</v>
+      </c>
+      <c r="C924">
+        <v>1</v>
+      </c>
+      <c r="D924" t="s">
+        <v>123</v>
+      </c>
+      <c r="E924" t="s">
+        <v>16</v>
+      </c>
+      <c r="F924" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C925">
+        <v>4</v>
+      </c>
+      <c r="D925" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E925" t="s">
+        <v>127</v>
+      </c>
+      <c r="F925" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C926">
+        <v>1</v>
+      </c>
+      <c r="D926" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E926" t="s">
+        <v>16</v>
+      </c>
+      <c r="F926" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C927">
+        <v>2</v>
+      </c>
+      <c r="D927" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E927" t="s">
+        <v>127</v>
+      </c>
+      <c r="F927" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B928" t="s">
+        <v>216</v>
+      </c>
+      <c r="C928">
+        <v>7</v>
+      </c>
+      <c r="D928" t="s">
+        <v>217</v>
+      </c>
+      <c r="E928" t="s">
+        <v>16</v>
+      </c>
+      <c r="F928" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C929">
+        <v>27</v>
+      </c>
+      <c r="D929" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E929" t="s">
+        <v>9</v>
+      </c>
+      <c r="F929" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B930" t="s">
+        <v>262</v>
+      </c>
+      <c r="C930">
+        <v>2</v>
+      </c>
+      <c r="D930" t="s">
+        <v>263</v>
+      </c>
+      <c r="E930" t="s">
+        <v>16</v>
+      </c>
+      <c r="F930" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B931" t="s">
+        <v>134</v>
+      </c>
+      <c r="C931">
+        <v>18</v>
+      </c>
+      <c r="D931" t="s">
+        <v>135</v>
+      </c>
+      <c r="E931" t="s">
+        <v>16</v>
+      </c>
+      <c r="F931" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C932">
+        <v>1</v>
+      </c>
+      <c r="D932" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E932" t="s">
+        <v>163</v>
+      </c>
+      <c r="F932" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B933" t="s">
+        <v>151</v>
+      </c>
+      <c r="C933">
+        <v>1</v>
+      </c>
+      <c r="D933" t="s">
+        <v>152</v>
+      </c>
+      <c r="E933" t="s">
+        <v>9</v>
+      </c>
+      <c r="F933" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C934">
+        <v>2</v>
+      </c>
+      <c r="D934" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E934" t="s">
+        <v>16</v>
+      </c>
+      <c r="F934" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B935" t="s">
+        <v>758</v>
+      </c>
+      <c r="C935">
+        <v>58</v>
+      </c>
+      <c r="D935" t="s">
+        <v>759</v>
+      </c>
+      <c r="E935" t="s">
+        <v>324</v>
+      </c>
+      <c r="F935" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B936" t="s">
+        <v>888</v>
+      </c>
+      <c r="C936">
+        <v>8</v>
+      </c>
+      <c r="D936" t="s">
+        <v>889</v>
+      </c>
+      <c r="E936" t="s">
+        <v>324</v>
+      </c>
+      <c r="F936" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B937" t="s">
+        <v>758</v>
+      </c>
+      <c r="C937">
+        <v>168</v>
+      </c>
+      <c r="D937" t="s">
+        <v>759</v>
+      </c>
+      <c r="E937" t="s">
+        <v>324</v>
+      </c>
+      <c r="F937" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C938">
+        <v>13</v>
+      </c>
+      <c r="D938" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E938" t="s">
+        <v>16</v>
+      </c>
+      <c r="F938" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C939">
+        <v>78</v>
+      </c>
+      <c r="D939" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E939" t="s">
+        <v>16</v>
+      </c>
+      <c r="F939" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C940">
+        <v>3</v>
+      </c>
+      <c r="D940" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E940" t="s">
+        <v>16</v>
+      </c>
+      <c r="F940" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B941" t="s">
+        <v>392</v>
+      </c>
+      <c r="C941">
+        <v>2</v>
+      </c>
+      <c r="D941" t="s">
+        <v>393</v>
+      </c>
+      <c r="E941" t="s">
+        <v>16</v>
+      </c>
+      <c r="F941" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B942" t="s">
+        <v>392</v>
+      </c>
+      <c r="C942">
+        <v>1</v>
+      </c>
+      <c r="D942" t="s">
+        <v>393</v>
+      </c>
+      <c r="E942" t="s">
+        <v>16</v>
+      </c>
+      <c r="F942" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C943">
+        <v>1</v>
+      </c>
+      <c r="D943" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E943" t="s">
+        <v>16</v>
+      </c>
+      <c r="F943" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B944" t="s">
+        <v>621</v>
+      </c>
+      <c r="C944">
+        <v>40</v>
+      </c>
+      <c r="D944" t="s">
+        <v>622</v>
+      </c>
+      <c r="E944" t="s">
+        <v>16</v>
+      </c>
+      <c r="F944" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C945">
+        <v>1</v>
+      </c>
+      <c r="D945" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E945" t="s">
+        <v>9</v>
+      </c>
+      <c r="F945" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B946" t="s">
+        <v>975</v>
+      </c>
+      <c r="C946">
+        <v>28</v>
+      </c>
+      <c r="D946" t="s">
+        <v>976</v>
+      </c>
+      <c r="E946" t="s">
+        <v>16</v>
+      </c>
+      <c r="F946" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C947">
+        <v>2</v>
+      </c>
+      <c r="D947" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E947" t="s">
+        <v>16</v>
+      </c>
+      <c r="F947" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C948">
+        <v>1</v>
+      </c>
+      <c r="D948" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E948" t="s">
+        <v>9</v>
+      </c>
+      <c r="F948" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B949" t="s">
+        <v>501</v>
+      </c>
+      <c r="C949">
+        <v>5</v>
+      </c>
+      <c r="D949" t="s">
+        <v>502</v>
+      </c>
+      <c r="E949" t="s">
+        <v>16</v>
+      </c>
+      <c r="F949" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C950">
+        <v>4</v>
+      </c>
+      <c r="D950" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E950" t="s">
+        <v>16</v>
+      </c>
+      <c r="F950" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C951">
+        <v>5</v>
+      </c>
+      <c r="D951" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E951" t="s">
+        <v>324</v>
+      </c>
+      <c r="F951" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C952">
+        <v>5</v>
+      </c>
+      <c r="D952" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E952" t="s">
+        <v>324</v>
+      </c>
+      <c r="F952" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B953" t="s">
+        <v>343</v>
+      </c>
+      <c r="C953">
+        <v>75</v>
+      </c>
+      <c r="D953" t="s">
+        <v>344</v>
+      </c>
+      <c r="E953" t="s">
+        <v>324</v>
+      </c>
+      <c r="F953" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C954">
+        <v>6</v>
+      </c>
+      <c r="D954" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E954" t="s">
+        <v>324</v>
+      </c>
+      <c r="F954" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C955">
+        <v>75</v>
+      </c>
+      <c r="D955" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E955" t="s">
+        <v>324</v>
+      </c>
+      <c r="F955" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C956">
+        <v>10</v>
+      </c>
+      <c r="D956" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E956" t="s">
+        <v>324</v>
+      </c>
+      <c r="F956" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C957">
+        <v>24</v>
+      </c>
+      <c r="D957" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E957" t="s">
+        <v>324</v>
+      </c>
+      <c r="F957" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C958">
+        <v>31</v>
+      </c>
+      <c r="D958" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E958" t="s">
+        <v>127</v>
+      </c>
+      <c r="F958" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B959" t="s">
+        <v>21</v>
+      </c>
+      <c r="C959">
+        <v>1</v>
+      </c>
+      <c r="D959" t="s">
+        <v>22</v>
+      </c>
+      <c r="E959" t="s">
+        <v>16</v>
+      </c>
+      <c r="F959" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C960">
+        <v>34</v>
+      </c>
+      <c r="D960" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E960" t="s">
+        <v>127</v>
+      </c>
+      <c r="F960" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C961">
+        <v>25</v>
+      </c>
+      <c r="D961" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E961" t="s">
+        <v>127</v>
+      </c>
+      <c r="F961" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C962">
+        <v>1</v>
+      </c>
+      <c r="D962" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E962" t="s">
+        <v>9</v>
+      </c>
+      <c r="F962" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C963">
+        <v>8</v>
+      </c>
+      <c r="D963" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E963" t="s">
+        <v>127</v>
+      </c>
+      <c r="F963" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C964">
+        <v>18</v>
+      </c>
+      <c r="D964" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E964" t="s">
+        <v>127</v>
+      </c>
+      <c r="F964" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C965">
+        <v>14</v>
+      </c>
+      <c r="D965" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E965" t="s">
+        <v>127</v>
+      </c>
+      <c r="F965" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C966">
+        <v>40</v>
+      </c>
+      <c r="D966" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E966" t="s">
+        <v>127</v>
+      </c>
+      <c r="F966" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C967">
+        <v>23</v>
+      </c>
+      <c r="D967" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E967" t="s">
+        <v>127</v>
+      </c>
+      <c r="F967" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C968">
+        <v>3</v>
+      </c>
+      <c r="D968" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E968" t="s">
+        <v>127</v>
+      </c>
+      <c r="F968" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C969">
+        <v>1</v>
+      </c>
+      <c r="D969" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E969" t="s">
+        <v>9</v>
+      </c>
+      <c r="F969" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C970">
+        <v>49</v>
+      </c>
+      <c r="D970" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E970" t="s">
+        <v>127</v>
+      </c>
+      <c r="F970" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B971" t="s">
+        <v>624</v>
+      </c>
+      <c r="C971">
+        <v>2</v>
+      </c>
+      <c r="D971" t="s">
+        <v>625</v>
+      </c>
+      <c r="E971" t="s">
+        <v>16</v>
+      </c>
+      <c r="F971" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C972">
+        <v>24</v>
+      </c>
+      <c r="D972" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E972" t="s">
+        <v>16</v>
+      </c>
+      <c r="F972" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C973">
+        <v>1</v>
+      </c>
+      <c r="D973" t="s">
+        <v>751</v>
+      </c>
+      <c r="E973" t="s">
+        <v>9</v>
+      </c>
+      <c r="F973" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C974">
+        <v>3</v>
+      </c>
+      <c r="D974" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E974" t="s">
+        <v>16</v>
+      </c>
+      <c r="F974" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C975">
+        <v>1</v>
+      </c>
+      <c r="D975" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E975" t="s">
+        <v>9</v>
+      </c>
+      <c r="F975" t="s">
+        <v>1510</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Code/Failure_rate/2022/YTD_2022.xlsx
+++ b/Code/Failure_rate/2022/YTD_2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\project_files\USAI\Code\Failure_rate\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A4CBCC-2C67-4625-BC5F-5FAE18011665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B093282F-8439-4D45-ABAB-E00C16700940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="23400" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="17730" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4875" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5548" uniqueCount="1975">
   <si>
     <t>RMA ID</t>
   </si>
@@ -5245,6 +5245,708 @@
   </si>
   <si>
     <t>RMA17138</t>
+  </si>
+  <si>
+    <t>RMA17158</t>
+  </si>
+  <si>
+    <t>RMA17212</t>
+  </si>
+  <si>
+    <t>RMA17207</t>
+  </si>
+  <si>
+    <t>RMA17189</t>
+  </si>
+  <si>
+    <t>RMA17163</t>
+  </si>
+  <si>
+    <t>RMA17156</t>
+  </si>
+  <si>
+    <t>RMA17165</t>
+  </si>
+  <si>
+    <t>SP-338-02-RD-F-L</t>
+  </si>
+  <si>
+    <t>3" MINI COMPLETE FT/FTIC ROUND FLANGED TO FLANGELESS</t>
+  </si>
+  <si>
+    <t>RMA17244</t>
+  </si>
+  <si>
+    <t>CMRD10-18CS1-5027KH-30-S-179-CR1-RM-MOD1</t>
+  </si>
+  <si>
+    <t>BEVELED MINI CYL RD DL 18W CSD RAL7047 49/72020 10" 5027KH 30° SOC CR1 RM MOD=CS+RM</t>
+  </si>
+  <si>
+    <t>RMA17243</t>
+  </si>
+  <si>
+    <t>MDF04-13H1-27KH-50-SM-WH-TRM</t>
+  </si>
+  <si>
+    <t>MICRO DOWNLIGHT FLANGE 4 CELL 13W 2700KH 50° SILVER MATTE-WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA17171</t>
+  </si>
+  <si>
+    <t>CA2</t>
+  </si>
+  <si>
+    <t>TEE BAR ASM 24"- 30" CENTER CUT CEILING</t>
+  </si>
+  <si>
+    <t>RMA17183</t>
+  </si>
+  <si>
+    <t>CBRD10-24C3-35KS-50-S-WH-AJ3-UNV-D6E</t>
+  </si>
+  <si>
+    <t>2.2 CYLINDER RD DL 24W CW 3500KS 50° BEAM-SOLITE LENS-WHITE-AJ MOUNT 96" 120-277V D6E</t>
+  </si>
+  <si>
+    <t>RMA17175</t>
+  </si>
+  <si>
+    <t>RMA17226</t>
+  </si>
+  <si>
+    <t>SP-324-0350-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT DRIVER - REPLACEMENT MINI X FTA-0350mA 120V-277V DIML6E-TR</t>
+  </si>
+  <si>
+    <t>RMA17227</t>
+  </si>
+  <si>
+    <t>MDL08-27H1-30KH-50-WH-TRM</t>
+  </si>
+  <si>
+    <t>MICRO DOWNLIGHT TRIMLESS 8 CELL 27W 3000KH 50° WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA17176</t>
+  </si>
+  <si>
+    <t>RMA17206</t>
+  </si>
+  <si>
+    <t>B4RART-33C3-35KS-T15-WH-RT-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 RD TRMD ADJ 33W 3500K 80CRI 15° BEAM RETROFIT WHITE HSG 120-277V ELDO 0-10V 1% LIN</t>
+  </si>
+  <si>
+    <t>RMA17152</t>
+  </si>
+  <si>
+    <t>RMA17181</t>
+  </si>
+  <si>
+    <t>RMA17209</t>
+  </si>
+  <si>
+    <t>RMA17245</t>
+  </si>
+  <si>
+    <t>RMA17191</t>
+  </si>
+  <si>
+    <t>RMA17202</t>
+  </si>
+  <si>
+    <t>MDG08-27H1-30KS-35-BL-BL-GL94-TRM</t>
+  </si>
+  <si>
+    <t>MICRO VS DOWNLIGHT 8 CELL 27W 3000KS 35° BLACK-BLACK GL94 TRIM</t>
+  </si>
+  <si>
+    <t>RMA17169</t>
+  </si>
+  <si>
+    <t>SR11-WH-X115-30KH-50-S-WH-TRM</t>
+  </si>
+  <si>
+    <t>SLIVERLED RD DN 1" WHITE BFFL X115 3000KH-50°DISTRIBUTION-SOLITE CLEAR LENS-WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA17153</t>
+  </si>
+  <si>
+    <t>RMA17211</t>
+  </si>
+  <si>
+    <t>CBRD10-36E1-35KS-50-S-BZ-PJ3-UNV-D6E</t>
+  </si>
+  <si>
+    <t>2.2 CYLINDER RD DL 36W CW 3500KS 50° BEAM-SOLITE LENS-BRONZE-PJ MOUNT 95" 120-277V D6E</t>
+  </si>
+  <si>
+    <t>RMA17234</t>
+  </si>
+  <si>
+    <t>SP-189-0350-6B</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT SLIVERLED 350mA-DIML6B-EL</t>
+  </si>
+  <si>
+    <t>RMA17162</t>
+  </si>
+  <si>
+    <t>MDM04-13H1-30KS-35-BZ-TRM</t>
+  </si>
+  <si>
+    <t>MICRO DOWNLIGHT MILLWORK 4 CELL 13W 3000K 80 CRI 35° BRONZE TRIM</t>
+  </si>
+  <si>
+    <t>RMA17217</t>
+  </si>
+  <si>
+    <t>RMA17190</t>
+  </si>
+  <si>
+    <t>RMA17205</t>
+  </si>
+  <si>
+    <t>RPA-01-41H1-UNV-D8E-MOD1</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER MICRO-1 FIXTURE MAX-41W H1 700mA 120-277V D8E-MOD=SINGLE FIXTURE</t>
+  </si>
+  <si>
+    <t>RMA17172</t>
+  </si>
+  <si>
+    <t>SP-126-0500-19</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT- BEVELED BASIC IC/CP HSG 20 WATT 500mA 120V-DIML19 HT</t>
+  </si>
+  <si>
+    <t>LEM-213-00-27KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT BASIC BEVELED STD CRI 2700K</t>
+  </si>
+  <si>
+    <t>RMA17196</t>
+  </si>
+  <si>
+    <t>RMA17235</t>
+  </si>
+  <si>
+    <t>RMA17193</t>
+  </si>
+  <si>
+    <t>SP-140-0700-8</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT - BEVELED 2.1 NC/IC/CP 16 WATT 700mA 120V-DIML8-EL</t>
+  </si>
+  <si>
+    <t>RMA17242</t>
+  </si>
+  <si>
+    <t>SP-322-0500-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT DRIVER-REPLACEMENT X1/X3/WG2/CS1 NC1/NCIC/NCCP-0500mA 120V-277V DIML6E-EL</t>
+  </si>
+  <si>
+    <t>RMA17216</t>
+  </si>
+  <si>
+    <t>RMA17221</t>
+  </si>
+  <si>
+    <t>RMA17213</t>
+  </si>
+  <si>
+    <t>RMA17177</t>
+  </si>
+  <si>
+    <t>RMA17198</t>
+  </si>
+  <si>
+    <t>RMA17186</t>
+  </si>
+  <si>
+    <t>SV-X115-IC-UNV-D6E</t>
+  </si>
+  <si>
+    <t>SLIVERLED SQ/RND TRIMMED 15W IC HSG 120-277V-DIML6E</t>
+  </si>
+  <si>
+    <t>SV-X109-IC-UNV-D6E</t>
+  </si>
+  <si>
+    <t>SLIVERLED SQ/RND TRIMMED 9W IC HSG UNV-DIML6E</t>
+  </si>
+  <si>
+    <t>RMA17240</t>
+  </si>
+  <si>
+    <t>RMA17173</t>
+  </si>
+  <si>
+    <t>RPB-01-18FC1-UNV-D23X2-RJ-MOD1</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER MINI-18W INFINITE COLOR 350/350/350/700mA 120-277V 16BIT MAN-RJ45 JACKS-MOD=PRELIM</t>
+  </si>
+  <si>
+    <t>RMA17238</t>
+  </si>
+  <si>
+    <t>RMA17188</t>
+  </si>
+  <si>
+    <t>Z1RDF-07X4C-35KH-45-NC-RM-HSG</t>
+  </si>
+  <si>
+    <t>ZEPTO RD DL TRMD 07W CLASSIC 35K 90CRI 45° BEAM NC HSG REMOTE POWER SUPPLY</t>
+  </si>
+  <si>
+    <t>RMA17231</t>
+  </si>
+  <si>
+    <t>MDG02-08H1-NCVS-UNV-D6E-GL94-HSG</t>
+  </si>
+  <si>
+    <t>MICRO DL FOR WOODWORKS 2 CELL 8W NCVS UNV ELDOLED 0-10V 1% LIN GL94 HSG</t>
+  </si>
+  <si>
+    <t>UA2</t>
+  </si>
+  <si>
+    <t>GRID MOUNT BAR SET 16-24"</t>
+  </si>
+  <si>
+    <t>RMA17222</t>
+  </si>
+  <si>
+    <t>MDG02-08H1-30KS-50-BL-BL-GL94-TRM</t>
+  </si>
+  <si>
+    <t>MICRO DL FOR WOODWORKS 2 CELL 8W 3000K 80 CRI 50° BLACK-BLACK GL94 TRIM</t>
+  </si>
+  <si>
+    <t>MWL02-08H1-30KH-WH-TRM</t>
+  </si>
+  <si>
+    <t>MICRO WW TRIMLESS 2 CELL 8W 3000KH WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA17232</t>
+  </si>
+  <si>
+    <t>RMA17210</t>
+  </si>
+  <si>
+    <t>SP-420-0350-2</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENTMINI PRIMARY EC 15W 350mA D2</t>
+  </si>
+  <si>
+    <t>RMA17159</t>
+  </si>
+  <si>
+    <t>M1RAF-07X4C-30KH-50-M0-WH-WH-RT-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO RD ADJ TRMD 7W 3000K 90 CRI 50° BEAM MICRO DIF LENS WHITE WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA17155</t>
+  </si>
+  <si>
+    <t>CK27</t>
+  </si>
+  <si>
+    <t>27" C-CHANNEL BARS/BUTTER FLY BRACKETS</t>
+  </si>
+  <si>
+    <t>P4RDF-22L2-40KS-F-NC-UNV-D22-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 PRIMARY RD DL TRMD 22W L2 40K 80CRI FLOOD OPTIC 120-277V D22 NC HSG</t>
+  </si>
+  <si>
+    <t>RMA17230</t>
+  </si>
+  <si>
+    <t>MDG02-08H1-30KH-35-BL-BL-GL91-TRM</t>
+  </si>
+  <si>
+    <t>MICRO DL FOR WOODWORKS 2 CELL 8W 3000K 90 CRI 35° BLACK-BLACK GL91 TRIM</t>
+  </si>
+  <si>
+    <t>RMA17166</t>
+  </si>
+  <si>
+    <t>SAMPLE BOX LITTLEONES MICRO KRAFT</t>
+  </si>
+  <si>
+    <t>RMA17195</t>
+  </si>
+  <si>
+    <t>SP-324-0350-28</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT DRIVER-REPLACEMENT MINI X FTA-350mA 120V-277V DIML28-EL</t>
+  </si>
+  <si>
+    <t>RMA17174</t>
+  </si>
+  <si>
+    <t>RMA17224</t>
+  </si>
+  <si>
+    <t>RMA17215</t>
+  </si>
+  <si>
+    <t>RPB-01-20M2-UNV-D6F</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER MINI/NANO-1 FIXTURE MAX-20W M2 500mA 120-277V D6F</t>
+  </si>
+  <si>
+    <t>SP-087-1400-6F</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT-BEVELED 6" PENDANT-33W-1400mA-120V-277V DIML6F-EL</t>
+  </si>
+  <si>
+    <t>RMA17236</t>
+  </si>
+  <si>
+    <t>SP-317-0350-6E</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT BEVELED 2.2 NC HSG 9W 350mA 120V-277V ELDO 1% LIN DIM</t>
+  </si>
+  <si>
+    <t>RMA17218</t>
+  </si>
+  <si>
+    <t>B3RGF-15X3-30KH-30-NCIC-120V-D22-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD DL TRMD 15W 3000K 90 CRI 30° BEAM SLOPED  HSG 120V ERP 0-10V, 1%</t>
+  </si>
+  <si>
+    <t>RMA17167</t>
+  </si>
+  <si>
+    <t>B3RGF-30-S-WH-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD DL TRMD 30° SLOPED SOLITE CLEAR LENS WHITE BEVEL WHITE FLANGE</t>
+  </si>
+  <si>
+    <t>RMA17208</t>
+  </si>
+  <si>
+    <t>RMA17197</t>
+  </si>
+  <si>
+    <t>RMA17201</t>
+  </si>
+  <si>
+    <t>RMA17161</t>
+  </si>
+  <si>
+    <t>RPD-01-09X1M-UNV-D6B</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER LITTLEONES-1 FIXTURE/DRIVER-9W X1M 225mA 120-277V D6B</t>
+  </si>
+  <si>
+    <t>M1RDF-09X1M-NC-RM-HSG</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO RD DL TRMD 9W NC RM HSG</t>
+  </si>
+  <si>
+    <t>RMA17192</t>
+  </si>
+  <si>
+    <t>RPB-01-20WG2-UNV-D6E</t>
+  </si>
+  <si>
+    <t>REMOTE DRIVER MINI/NANO-1 FIXTURE MAX-20W WG2 500mA 120-277V D6E</t>
+  </si>
+  <si>
+    <t>LEM-313-00-2722KH</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT BEVELED MINI WGD HI CRI 2700-2200KH</t>
+  </si>
+  <si>
+    <t>RMA17184</t>
+  </si>
+  <si>
+    <t>LEM-275-16-2722KS</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT-BEVELED 2.2 WG2 16W 80CRI 2700-2200K</t>
+  </si>
+  <si>
+    <t>RMA17200</t>
+  </si>
+  <si>
+    <t>RMA17157</t>
+  </si>
+  <si>
+    <t>USAI-4DLA1IC-FC1IX32D23-RPG-00</t>
+  </si>
+  <si>
+    <t>RECESS 4.5 RD ADJ TRML 32W INFINITE COLOR+ 40° BEAM NCIC HSG 120-277V DMX 0.1% DIM RJ45</t>
+  </si>
+  <si>
+    <t>USAI-4DLA1IC-FC1IX32D23-RPF-00</t>
+  </si>
+  <si>
+    <t>RECESS 4.5 RD ADJ TRML 32W INFINITE COLOR+ 35° BEAM NCIC HSG 120-277V DMX 0.1% DIM RJ45</t>
+  </si>
+  <si>
+    <t>RMA17204</t>
+  </si>
+  <si>
+    <t>SP-457-0700-23X1</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT- BEVELED 2.2 CYLINDER 32W FC1 120-277V D23X1 8 BIT MANUAL ADDRESS</t>
+  </si>
+  <si>
+    <t>RMA17223</t>
+  </si>
+  <si>
+    <t>USAI-4DLA1NC-FC1IX32D23-RFF-00</t>
+  </si>
+  <si>
+    <t>RECESS 4.5 RD ADJ TRMD 32W INFINITE COLOR+ 35° BEAM NC HSG 120-277V DMX 0.1% DIM RJ45</t>
+  </si>
+  <si>
+    <t>RMA17187</t>
+  </si>
+  <si>
+    <t>USAI-2DL-WGD-IP-CONTROLLER-00</t>
+  </si>
+  <si>
+    <t>REPLACEMENT CONTROLLER PLATE ASSY - 0500 WGD MINI NC1 W/ PLATE</t>
+  </si>
+  <si>
+    <t>USAI-2DL-DRIVER-NC-WD1IP16A-00</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT PINHOLE 700mA-D3 WGD</t>
+  </si>
+  <si>
+    <t>RMA17239</t>
+  </si>
+  <si>
+    <t>B4SDF-S-SC-SC-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED SQUARE TRMD DL/ADJ SOLITE LENS CONDUIT SILVER TRIM</t>
+  </si>
+  <si>
+    <t>B4SDF-12C3-35KS-90-NCSM-UNV-D7-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 SQ DL TRMD 12W CLASSIC 35K 80CRI 90° BEAM NCSM HSG 120-277V ELDO DALI 0.1% DIM</t>
+  </si>
+  <si>
+    <t>RMA17228</t>
+  </si>
+  <si>
+    <t>RMA17194</t>
+  </si>
+  <si>
+    <t>B3RCL-15WG2-2722KH-30-NC1-UNV-D6A-HSG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEVELED MINI RD COMFORT TRML 15W WARM GLOW 27-22K 90CRI 30° BEAM NC1 HSG 120-277V D6A </t>
+  </si>
+  <si>
+    <t>B4RAL-32WG2-2722KH-R40-NC-UNV-D6A-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 RD ADJ TRML 32W WARM GLOW 27-22K 90CRI 40° BEAM NC HSG 120-277V ELDO 0.1% LIN DIM</t>
+  </si>
+  <si>
+    <t>RMA17203</t>
+  </si>
+  <si>
+    <t>B4RCL-32WG2-2722KH-65-NC-UNV-D6A-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 RD COMFORT TRML 32W WARM GLOW 27-22K 90CRI 65° BEAM NC HSG 120-277V ELDO 0.1% LIN DIM</t>
+  </si>
+  <si>
+    <t>B3RAF-15WG2-2722KH-30-NC1-UNV-D6A-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD ADJ TRMD 15W WARM GLOW 27-22K 90CRI 30° BEAM NC1 HSG 120-277V D6A</t>
+  </si>
+  <si>
+    <t>RMA17225</t>
+  </si>
+  <si>
+    <t>P3SF-15L2-EC-UNV-D22-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI PRIMARY SQUARE TRMD 15W L2 120-277V D22 EC HSG</t>
+  </si>
+  <si>
+    <t>B4RAL-32WG2-2722KH-T62-NC-UNV-D6A-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED 2.2 RD ADJ TRML 32W WARM GLOW 27-22K 90CRI 20°x60°BEAM NC HSG 120-277V ELDO 0.1% LIN DIM</t>
+  </si>
+  <si>
+    <t>RMA17233</t>
+  </si>
+  <si>
+    <t>RMA17214</t>
+  </si>
+  <si>
+    <t>SP-534-0350-22</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT - PRIMARY NXT 15W D22</t>
+  </si>
+  <si>
+    <t>RMA17237</t>
+  </si>
+  <si>
+    <t>B3RAF-25-S-WH-WH-TRM</t>
+  </si>
+  <si>
+    <t>BEVELED MINI ROUND DL/ADJ TRMD 0°-40° TILT SOLITE LENS -WHITE BEVEL-WHITE FLANGE TRIM</t>
+  </si>
+  <si>
+    <t>B3RAF-15L2-27KS-25-NC-UNV-D22-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD ADJ TRMD 15W BASIC 27K 80CRI 25° BEAM NC HSG 120-277V D22</t>
+  </si>
+  <si>
+    <t>RMA17151</t>
+  </si>
+  <si>
+    <t>RMA17154</t>
+  </si>
+  <si>
+    <t>M1RDL-07X4C-27KH-35-M0-WH-NC-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO RD DL TRML 7W 2700K 90 CRI 35° BEAM MICRO DIF LENS WHITE TRIM</t>
+  </si>
+  <si>
+    <t>M1RDL-09X1M-27KH-35-M0-WH-NC-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO RD DL TRML 9W 2700K 90 CRI 35° BEAM MICRO DIF LENS WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA17220</t>
+  </si>
+  <si>
+    <t>B3SWL-18FC1-W3-NC1-UNV-RM-HSG-MOD1</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ WW3 TRML 18W INFINITE COLOR 30K 80CRI NC1 HSG D23 MOD=W3</t>
+  </si>
+  <si>
+    <t>B3RWP-18CS1-6022KS-W2-NC1-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD WW TRML TILE 18W COLOR SELECT 60-22K 80CRI NC1 HSG 120-277V D6E</t>
+  </si>
+  <si>
+    <t>B3RCP-18CS1-6022KS-50-NC1-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD COMFORT TRML TILE 18W COLOR SELECT 60-22K 80CRI 50° BEAM NC1 HSG 120-277V D6E</t>
+  </si>
+  <si>
+    <t>B3SCP-18FC1-45-NC1-UNV-D23X1-WR-HSG-MOD1</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ COMFORT TRML TILE 18W INFINITE COLOR 30K 80CRI 45° BEAM NC1 HSG  D23 MOD = NS ABOVE</t>
+  </si>
+  <si>
+    <t>B3SCP-18FC1-55-NC1-RM-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ COMFORT TRML TILE 18W INFINITE COLOR 30K 80CRI 55° BEAM NC1 HSG RM</t>
+  </si>
+  <si>
+    <t>B3RAP-18FC1-35-NC1-UNV-D23X1-WR-HSG-MOD1</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD WW MILLWORK WH 18W INFINITE COLOR 30K 80CRI NC1 HSG D23 MOD = NS ABOVE CEILING</t>
+  </si>
+  <si>
+    <t>B3SDL-18FC1-65-FT-RM-HSG-MOD1</t>
+  </si>
+  <si>
+    <t>BEVELED MINI SQ DL TRML 18W INFINITE COLOR 30K 80CRI 65° BEAM FT HSG  REMOTE DRIVER-MOD=PRELIM</t>
+  </si>
+  <si>
+    <t>B3RAP-18CS1-6022KS-30-NC1-UNV-D6E-HSG</t>
+  </si>
+  <si>
+    <t>BEVELED MINI RD ADJ TRML TILE 18W COLOR SELECT 60-22K 80CRI 30° BEAM NC1 HSG 120-277V D6E</t>
+  </si>
+  <si>
+    <t>RMA17164</t>
+  </si>
+  <si>
+    <t>SP-421-0350-21</t>
+  </si>
+  <si>
+    <t>DRIVER REPLACEMENT - PRIMARY BEVEL ADJ NC/IC HSG</t>
+  </si>
+  <si>
+    <t>LEM-401-00-3018KH</t>
+  </si>
+  <si>
+    <t>LIGHT ENGINE MODULE REPLACEMENT PRIMARY HI CRI 3000K-1800K</t>
+  </si>
+  <si>
+    <t>RMA17241</t>
+  </si>
+  <si>
+    <t>M1SWL-07X4C-30KS-W2-D1-WH-IC-TRM</t>
+  </si>
+  <si>
+    <t>LITTLEONES MICRO SQ WW TRML 7W 3000K 80 CRI W2 MICRO DIF LENS WHITE TRIM</t>
+  </si>
+  <si>
+    <t>RMA17180</t>
+  </si>
+  <si>
+    <t>RMA17199</t>
+  </si>
+  <si>
+    <t>AC3951-118-B1-1196</t>
+  </si>
+  <si>
+    <t>BEVELED CUSTOM ROUND WW 118.5 DIA FLANGE APPLE MARRONE BRONZO</t>
+  </si>
+  <si>
+    <t>July</t>
   </si>
 </sst>
 </file>
@@ -5635,11 +6337,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F975"/>
+  <dimension ref="A1:F1110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A968" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L811" sqref="L811"/>
+      <pane ySplit="1" topLeftCell="A1094" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1116" sqref="F1116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25144,6 +25846,2700 @@
         <v>1510</v>
       </c>
     </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B976" t="s">
+        <v>691</v>
+      </c>
+      <c r="C976">
+        <v>1</v>
+      </c>
+      <c r="D976" t="s">
+        <v>692</v>
+      </c>
+      <c r="E976" t="s">
+        <v>16</v>
+      </c>
+      <c r="F976" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B977" t="s">
+        <v>151</v>
+      </c>
+      <c r="C977">
+        <v>11</v>
+      </c>
+      <c r="D977" t="s">
+        <v>152</v>
+      </c>
+      <c r="E977" t="s">
+        <v>16</v>
+      </c>
+      <c r="F977" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B978" t="s">
+        <v>37</v>
+      </c>
+      <c r="C978">
+        <v>4</v>
+      </c>
+      <c r="D978" t="s">
+        <v>38</v>
+      </c>
+      <c r="E978" t="s">
+        <v>16</v>
+      </c>
+      <c r="F978" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B979" t="s">
+        <v>41</v>
+      </c>
+      <c r="C979">
+        <v>1</v>
+      </c>
+      <c r="D979" t="s">
+        <v>42</v>
+      </c>
+      <c r="E979" t="s">
+        <v>16</v>
+      </c>
+      <c r="F979" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C980">
+        <v>1</v>
+      </c>
+      <c r="D980" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E980" t="s">
+        <v>16</v>
+      </c>
+      <c r="F980" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B981" t="s">
+        <v>240</v>
+      </c>
+      <c r="C981">
+        <v>1</v>
+      </c>
+      <c r="D981" t="s">
+        <v>241</v>
+      </c>
+      <c r="E981" t="s">
+        <v>9</v>
+      </c>
+      <c r="F981" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B982" t="s">
+        <v>240</v>
+      </c>
+      <c r="C982">
+        <v>4</v>
+      </c>
+      <c r="D982" t="s">
+        <v>241</v>
+      </c>
+      <c r="E982" t="s">
+        <v>16</v>
+      </c>
+      <c r="F982" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C983">
+        <v>11</v>
+      </c>
+      <c r="D983" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E983" t="s">
+        <v>127</v>
+      </c>
+      <c r="F983" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C984">
+        <v>223</v>
+      </c>
+      <c r="D984" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E984" t="s">
+        <v>127</v>
+      </c>
+      <c r="F984" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>1753</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C985">
+        <v>1</v>
+      </c>
+      <c r="D985" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E985" t="s">
+        <v>16</v>
+      </c>
+      <c r="F985" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C986">
+        <v>153</v>
+      </c>
+      <c r="D986" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E986" t="s">
+        <v>127</v>
+      </c>
+      <c r="F986" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C987">
+        <v>28</v>
+      </c>
+      <c r="D987" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E987" t="s">
+        <v>9</v>
+      </c>
+      <c r="F987" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C988">
+        <v>2</v>
+      </c>
+      <c r="D988" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E988" t="s">
+        <v>9</v>
+      </c>
+      <c r="F988" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C989">
+        <v>1</v>
+      </c>
+      <c r="D989" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E989" t="s">
+        <v>16</v>
+      </c>
+      <c r="F989" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C990">
+        <v>1</v>
+      </c>
+      <c r="D990" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E990" t="s">
+        <v>16</v>
+      </c>
+      <c r="F990" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C991">
+        <v>1</v>
+      </c>
+      <c r="D991" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E991" t="s">
+        <v>16</v>
+      </c>
+      <c r="F991" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B992" t="s">
+        <v>167</v>
+      </c>
+      <c r="C992">
+        <v>6</v>
+      </c>
+      <c r="D992" t="s">
+        <v>168</v>
+      </c>
+      <c r="E992" t="s">
+        <v>16</v>
+      </c>
+      <c r="F992" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B993" t="s">
+        <v>21</v>
+      </c>
+      <c r="C993">
+        <v>13</v>
+      </c>
+      <c r="D993" t="s">
+        <v>22</v>
+      </c>
+      <c r="E993" t="s">
+        <v>16</v>
+      </c>
+      <c r="F993" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C994">
+        <v>1</v>
+      </c>
+      <c r="D994" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E994" t="s">
+        <v>127</v>
+      </c>
+      <c r="F994" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C995">
+        <v>1</v>
+      </c>
+      <c r="D995" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E995" t="s">
+        <v>9</v>
+      </c>
+      <c r="F995" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C996">
+        <v>3</v>
+      </c>
+      <c r="D996" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E996" t="s">
+        <v>9</v>
+      </c>
+      <c r="F996" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C997">
+        <v>57</v>
+      </c>
+      <c r="D997" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E997" t="s">
+        <v>127</v>
+      </c>
+      <c r="F997" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B998" t="s">
+        <v>885</v>
+      </c>
+      <c r="C998">
+        <v>1</v>
+      </c>
+      <c r="D998" t="s">
+        <v>886</v>
+      </c>
+      <c r="E998" t="s">
+        <v>16</v>
+      </c>
+      <c r="F998" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C999">
+        <v>1</v>
+      </c>
+      <c r="D999" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E999" t="s">
+        <v>16</v>
+      </c>
+      <c r="F999" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>734</v>
+      </c>
+      <c r="C1000">
+        <v>3</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>735</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1000" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1001">
+        <v>10</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1001" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C1002">
+        <v>1</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C1003">
+        <v>1</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>711</v>
+      </c>
+      <c r="C1004">
+        <v>4</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>712</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C1005">
+        <v>4</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C1006">
+        <v>1</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C1007">
+        <v>1</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>1793</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1007" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1008">
+        <v>1</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>691</v>
+      </c>
+      <c r="C1009">
+        <v>1</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>692</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C1010">
+        <v>17</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C1011">
+        <v>26</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>1801</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C1012">
+        <v>26</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1013">
+        <v>4</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C1014">
+        <v>3</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1015">
+        <v>3</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1807</v>
+      </c>
+      <c r="C1016">
+        <v>1</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>1808</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1016" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1017">
+        <v>1</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>1811</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1018">
+        <v>10</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>989</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1019">
+        <v>2</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1020">
+        <v>5</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1020" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1021">
+        <v>1</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1021" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C1022">
+        <v>24</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1023">
+        <v>63</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C1024">
+        <v>6</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C1025">
+        <v>4</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1026">
+        <v>61</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1027">
+        <v>1</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1028">
+        <v>7</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1029">
+        <v>14</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1030">
+        <v>15</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C1031">
+        <v>2</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1032">
+        <v>16</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>198</v>
+      </c>
+      <c r="C1033">
+        <v>9</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>621</v>
+      </c>
+      <c r="C1034">
+        <v>9</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>622</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1035">
+        <v>2</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C1036">
+        <v>1</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1037">
+        <v>1</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C1038">
+        <v>10</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>1832</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C1039">
+        <v>10</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>667</v>
+      </c>
+      <c r="C1040">
+        <v>1</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C1041">
+        <v>10</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C1042">
+        <v>2</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>667</v>
+      </c>
+      <c r="C1043">
+        <v>1</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C1044">
+        <v>1</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C1045">
+        <v>15</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C1046">
+        <v>10</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C1047">
+        <v>5</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1048">
+        <v>5</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>533</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C1049">
+        <v>5</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C1050">
+        <v>2</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>1854</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1051">
+        <v>1</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C1052">
+        <v>2</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1053">
+        <v>6</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1054">
+        <v>1</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>667</v>
+      </c>
+      <c r="C1055">
+        <v>1</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>668</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C1056">
+        <v>2</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>1864</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1057">
+        <v>25</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>232</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1058">
+        <v>2</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C1059">
+        <v>25</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>1866</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C1060">
+        <v>5</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C1061">
+        <v>4</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C1062">
+        <v>8</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1063">
+        <v>4</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1064">
+        <v>1</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C1065">
+        <v>1</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C1066">
+        <v>5</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C1067">
+        <v>2</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C1068">
+        <v>1</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C1069">
+        <v>1</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C1070">
+        <v>9</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1071">
+        <v>16</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1072">
+        <v>3</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>1895</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C1073">
+        <v>12</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C1074">
+        <v>1</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C1075">
+        <v>2</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>1903</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C1076">
+        <v>1</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C1077">
+        <v>1</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1078">
+        <v>1</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C1079">
+        <v>1</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>1911</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C1080">
+        <v>1</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1081">
+        <v>10</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1082">
+        <v>14</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1083">
+        <v>45</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1084">
+        <v>17</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>1919</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1085">
+        <v>3</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C1086">
+        <v>42</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>1922</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C1087">
+        <v>5</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>1924</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C1088">
+        <v>6</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>1927</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1089">
+        <v>17</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>1929</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>725</v>
+      </c>
+      <c r="C1090">
+        <v>1</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>726</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C1091">
+        <v>22</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>1933</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C1092">
+        <v>6</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>1937</v>
+      </c>
+      <c r="C1093">
+        <v>6</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>1938</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1094">
+        <v>6</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C1095">
+        <v>17</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C1096">
+        <v>3</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>1942</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C1097">
+        <v>1</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>1944</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>1946</v>
+      </c>
+      <c r="C1098">
+        <v>8</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>1947</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C1099">
+        <v>5</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C1100">
+        <v>1</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>1951</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>1952</v>
+      </c>
+      <c r="C1101">
+        <v>5</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>1953</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C1102">
+        <v>2</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C1103">
+        <v>7</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>1958</v>
+      </c>
+      <c r="C1104">
+        <v>3</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C1105">
+        <v>2</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C1106">
+        <v>1</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>1965</v>
+      </c>
+      <c r="C1107">
+        <v>1</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C1108">
+        <v>1</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>688</v>
+      </c>
+      <c r="C1109">
+        <v>1</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>689</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>1972</v>
+      </c>
+      <c r="C1110">
+        <v>43</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>1974</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
